--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2012.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2012.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>129960.0</v>
+        <v>129960</v>
       </c>
       <c r="C2" t="n">
-        <v>50933.0</v>
+        <v>50933</v>
       </c>
       <c r="D2" t="n">
-        <v>19802.0</v>
+        <v>19802</v>
       </c>
       <c r="E2" t="n">
-        <v>8336.0</v>
+        <v>8336</v>
       </c>
       <c r="F2" t="n">
-        <v>124570.0</v>
+        <v>124570</v>
       </c>
       <c r="G2" t="n">
-        <v>49458.0</v>
+        <v>49458</v>
       </c>
       <c r="H2" t="n">
-        <v>3827.0</v>
+        <v>3827</v>
       </c>
       <c r="I2" t="n">
-        <v>27806.0</v>
+        <v>27806</v>
       </c>
       <c r="J2" t="n">
-        <v>14593.0</v>
+        <v>14593</v>
       </c>
       <c r="K2" t="n">
-        <v>36501.0</v>
+        <v>36501</v>
       </c>
       <c r="L2" t="n">
-        <v>20539.0</v>
+        <v>20539</v>
       </c>
       <c r="M2" t="n">
-        <v>4493.0</v>
+        <v>4493</v>
       </c>
       <c r="N2" t="n">
-        <v>13591.0</v>
+        <v>13591</v>
       </c>
       <c r="O2" t="n">
-        <v>24782.0</v>
+        <v>24782</v>
       </c>
       <c r="P2" t="n">
-        <v>12561.0</v>
+        <v>12561</v>
       </c>
       <c r="Q2" t="n">
-        <v>9540.0</v>
+        <v>9540</v>
       </c>
       <c r="R2" t="n">
-        <v>15462.0</v>
+        <v>15462</v>
       </c>
       <c r="S2" t="n">
-        <v>8154.0</v>
+        <v>8154</v>
       </c>
       <c r="T2" t="n">
-        <v>-27152.0</v>
+        <v>-27152</v>
       </c>
       <c r="U2" t="n">
-        <v>4035.0</v>
+        <v>4035</v>
       </c>
       <c r="V2" t="n">
-        <v>13075.0</v>
+        <v>13075</v>
       </c>
       <c r="W2" t="n">
-        <v>11134.0</v>
+        <v>11134</v>
       </c>
       <c r="X2" t="n">
-        <v>6143.0</v>
+        <v>6143</v>
       </c>
       <c r="Y2" t="n">
-        <v>21495.0</v>
+        <v>21495</v>
       </c>
       <c r="Z2" t="n">
-        <v>23336.0</v>
+        <v>23336</v>
       </c>
       <c r="AA2" t="n">
-        <v>27353.0</v>
+        <v>27353</v>
       </c>
       <c r="AB2" t="n">
-        <v>23544.0</v>
+        <v>23544</v>
       </c>
       <c r="AC2" t="n">
-        <v>6645.0</v>
+        <v>6645</v>
       </c>
       <c r="AD2" t="n">
-        <v>33208.0</v>
+        <v>33208</v>
       </c>
       <c r="AE2" t="n">
-        <v>15236.0</v>
+        <v>15236</v>
       </c>
       <c r="AF2" t="n">
-        <v>15829.0</v>
+        <v>15829</v>
       </c>
       <c r="AG2" t="n">
-        <v>35123.0</v>
+        <v>35123</v>
       </c>
       <c r="AH2" t="n">
-        <v>33921.0</v>
+        <v>33921</v>
       </c>
       <c r="AI2" t="n">
-        <v>23511.0</v>
+        <v>23511</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10481.0</v>
+        <v>10481</v>
       </c>
       <c r="AK2" t="n">
-        <v>29355.0</v>
+        <v>29355</v>
       </c>
       <c r="AL2" t="n">
-        <v>19727.0</v>
+        <v>19727</v>
       </c>
       <c r="AM2" t="n">
-        <v>68628.0</v>
+        <v>68628</v>
       </c>
       <c r="AN2" t="n">
-        <v>31605.0</v>
+        <v>31605</v>
       </c>
       <c r="AO2" t="n">
-        <v>265237.0</v>
+        <v>265237</v>
       </c>
       <c r="AP2" t="n">
-        <v>79879.0</v>
+        <v>79879</v>
       </c>
       <c r="AQ2" t="n">
-        <v>468460.0</v>
+        <v>468460</v>
       </c>
       <c r="AR2" t="n">
-        <v>118619.0</v>
+        <v>118619</v>
       </c>
       <c r="AS2" t="n">
-        <v>4763.0</v>
+        <v>4763</v>
       </c>
       <c r="AT2" t="n">
-        <v>7034.0</v>
+        <v>7034</v>
       </c>
       <c r="AU2" t="n">
-        <v>52647.0</v>
+        <v>52647</v>
       </c>
       <c r="AV2" t="n">
-        <v>10194.0</v>
+        <v>10194</v>
       </c>
       <c r="AW2" t="n">
-        <v>84038.0</v>
+        <v>84038</v>
       </c>
       <c r="AX2" t="n">
-        <v>10001.0</v>
+        <v>10001</v>
       </c>
       <c r="AY2" t="n">
-        <v>15633.0</v>
+        <v>15633</v>
       </c>
       <c r="AZ2" t="n">
-        <v>63566.0</v>
+        <v>63566</v>
       </c>
       <c r="BA2" t="n">
-        <v>59251.0</v>
+        <v>59251</v>
       </c>
       <c r="BB2" t="n">
-        <v>260312.0</v>
+        <v>260312</v>
       </c>
       <c r="BC2" t="n">
-        <v>358947.0</v>
+        <v>358947</v>
       </c>
       <c r="BD2" t="n">
-        <v>96139.0</v>
+        <v>96139</v>
       </c>
       <c r="BE2" t="n">
-        <v>40146.0</v>
+        <v>40146</v>
       </c>
       <c r="BF2" t="n">
-        <v>26397.0</v>
+        <v>26397</v>
       </c>
       <c r="BG2" t="n">
-        <v>24707.0</v>
+        <v>24707</v>
       </c>
       <c r="BH2" t="n">
-        <v>112528.0</v>
+        <v>112528</v>
       </c>
       <c r="BI2" t="n">
-        <v>22000.0</v>
+        <v>22000</v>
       </c>
       <c r="BJ2" t="n">
-        <v>405145.0</v>
+        <v>405145</v>
       </c>
       <c r="BK2" t="n">
-        <v>165213.0</v>
+        <v>165213</v>
       </c>
       <c r="BL2" t="n">
-        <v>49520.0</v>
+        <v>49520</v>
       </c>
       <c r="BM2" t="n">
-        <v>81743.0</v>
+        <v>81743</v>
       </c>
       <c r="BN2" t="n">
-        <v>88543.0</v>
+        <v>88543</v>
       </c>
       <c r="BO2" t="n">
-        <v>15504.0</v>
+        <v>15504</v>
       </c>
       <c r="BP2" t="n">
-        <v>59588.0</v>
+        <v>59588</v>
       </c>
       <c r="BQ2" t="n">
-        <v>47365.0</v>
+        <v>47365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>22525.0</v>
+        <v>22525</v>
       </c>
       <c r="C3" t="n">
-        <v>16726.0</v>
+        <v>16726</v>
       </c>
       <c r="D3" t="n">
-        <v>2265.0</v>
+        <v>2265</v>
       </c>
       <c r="E3" t="n">
-        <v>3593.0</v>
+        <v>3593</v>
       </c>
       <c r="F3" t="n">
-        <v>16279.0</v>
+        <v>16279</v>
       </c>
       <c r="G3" t="n">
-        <v>6083.0</v>
+        <v>6083</v>
       </c>
       <c r="H3" t="n">
-        <v>1966.0</v>
+        <v>1966</v>
       </c>
       <c r="I3" t="n">
-        <v>17392.0</v>
+        <v>17392</v>
       </c>
       <c r="J3" t="n">
-        <v>9752.0</v>
+        <v>9752</v>
       </c>
       <c r="K3" t="n">
-        <v>22823.0</v>
+        <v>22823</v>
       </c>
       <c r="L3" t="n">
-        <v>6734.0</v>
+        <v>6734</v>
       </c>
       <c r="M3" t="n">
-        <v>1308.0</v>
+        <v>1308</v>
       </c>
       <c r="N3" t="n">
-        <v>9064.0</v>
+        <v>9064</v>
       </c>
       <c r="O3" t="n">
-        <v>16093.0</v>
+        <v>16093</v>
       </c>
       <c r="P3" t="n">
-        <v>9322.0</v>
+        <v>9322</v>
       </c>
       <c r="Q3" t="n">
-        <v>5606.0</v>
+        <v>5606</v>
       </c>
       <c r="R3" t="n">
-        <v>9556.0</v>
+        <v>9556</v>
       </c>
       <c r="S3" t="n">
-        <v>4882.0</v>
+        <v>4882</v>
       </c>
       <c r="T3" t="n">
-        <v>5346.0</v>
+        <v>5346</v>
       </c>
       <c r="U3" t="n">
-        <v>2555.0</v>
+        <v>2555</v>
       </c>
       <c r="V3" t="n">
-        <v>8381.0</v>
+        <v>8381</v>
       </c>
       <c r="W3" t="n">
-        <v>7144.0</v>
+        <v>7144</v>
       </c>
       <c r="X3" t="n">
-        <v>4136.0</v>
+        <v>4136</v>
       </c>
       <c r="Y3" t="n">
-        <v>7956.0</v>
+        <v>7956</v>
       </c>
       <c r="Z3" t="n">
-        <v>17408.0</v>
+        <v>17408</v>
       </c>
       <c r="AA3" t="n">
-        <v>16016.0</v>
+        <v>16016</v>
       </c>
       <c r="AB3" t="n">
-        <v>10997.0</v>
+        <v>10997</v>
       </c>
       <c r="AC3" t="n">
-        <v>5214.0</v>
+        <v>5214</v>
       </c>
       <c r="AD3" t="n">
-        <v>20514.0</v>
+        <v>20514</v>
       </c>
       <c r="AE3" t="n">
-        <v>9841.0</v>
+        <v>9841</v>
       </c>
       <c r="AF3" t="n">
-        <v>11977.0</v>
+        <v>11977</v>
       </c>
       <c r="AG3" t="n">
-        <v>25511.0</v>
+        <v>25511</v>
       </c>
       <c r="AH3" t="n">
-        <v>18508.0</v>
+        <v>18508</v>
       </c>
       <c r="AI3" t="n">
-        <v>18606.0</v>
+        <v>18606</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7590.0</v>
+        <v>7590</v>
       </c>
       <c r="AK3" t="n">
-        <v>13048.0</v>
+        <v>13048</v>
       </c>
       <c r="AL3" t="n">
-        <v>10387.0</v>
+        <v>10387</v>
       </c>
       <c r="AM3" t="n">
-        <v>13520.0</v>
+        <v>13520</v>
       </c>
       <c r="AN3" t="n">
-        <v>11923.0</v>
+        <v>11923</v>
       </c>
       <c r="AO3" t="n">
-        <v>114503.0</v>
+        <v>114503</v>
       </c>
       <c r="AP3" t="n">
-        <v>35447.0</v>
+        <v>35447</v>
       </c>
       <c r="AQ3" t="n">
-        <v>222593.0</v>
+        <v>222593</v>
       </c>
       <c r="AR3" t="n">
-        <v>57896.0</v>
+        <v>57896</v>
       </c>
       <c r="AS3" t="n">
-        <v>3727.0</v>
+        <v>3727</v>
       </c>
       <c r="AT3" t="n">
-        <v>6348.0</v>
+        <v>6348</v>
       </c>
       <c r="AU3" t="n">
-        <v>31988.0</v>
+        <v>31988</v>
       </c>
       <c r="AV3" t="n">
-        <v>6877.0</v>
+        <v>6877</v>
       </c>
       <c r="AW3" t="n">
-        <v>33573.0</v>
+        <v>33573</v>
       </c>
       <c r="AX3" t="n">
-        <v>6613.0</v>
+        <v>6613</v>
       </c>
       <c r="AY3" t="n">
-        <v>8849.0</v>
+        <v>8849</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14588.0</v>
+        <v>14588</v>
       </c>
       <c r="BA3" t="n">
-        <v>31815.0</v>
+        <v>31815</v>
       </c>
       <c r="BB3" t="n">
-        <v>110479.0</v>
+        <v>110479</v>
       </c>
       <c r="BC3" t="n">
-        <v>5319.0</v>
+        <v>5319</v>
       </c>
       <c r="BD3" t="n">
-        <v>39870.0</v>
+        <v>39870</v>
       </c>
       <c r="BE3" t="n">
-        <v>18995.0</v>
+        <v>18995</v>
       </c>
       <c r="BF3" t="n">
-        <v>9668.0</v>
+        <v>9668</v>
       </c>
       <c r="BG3" t="n">
-        <v>7831.0</v>
+        <v>7831</v>
       </c>
       <c r="BH3" t="n">
-        <v>74116.0</v>
+        <v>74116</v>
       </c>
       <c r="BI3" t="n">
-        <v>19497.0</v>
+        <v>19497</v>
       </c>
       <c r="BJ3" t="n">
-        <v>353933.0</v>
+        <v>353933</v>
       </c>
       <c r="BK3" t="n">
-        <v>157399.0</v>
+        <v>157399</v>
       </c>
       <c r="BL3" t="n">
-        <v>44169.0</v>
+        <v>44169</v>
       </c>
       <c r="BM3" t="n">
-        <v>77732.0</v>
+        <v>77732</v>
       </c>
       <c r="BN3" t="n">
-        <v>46959.0</v>
+        <v>46959</v>
       </c>
       <c r="BO3" t="n">
-        <v>8014.0</v>
+        <v>8014</v>
       </c>
       <c r="BP3" t="n">
-        <v>34144.0</v>
+        <v>34144</v>
       </c>
       <c r="BQ3" t="n">
-        <v>47365.0</v>
+        <v>47365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>19142.0</v>
+        <v>19142</v>
       </c>
       <c r="C4" t="n">
-        <v>14482.0</v>
+        <v>14482</v>
       </c>
       <c r="D4" t="n">
-        <v>1882.0</v>
+        <v>1882</v>
       </c>
       <c r="E4" t="n">
-        <v>2825.0</v>
+        <v>2825</v>
       </c>
       <c r="F4" t="n">
-        <v>11863.0</v>
+        <v>11863</v>
       </c>
       <c r="G4" t="n">
-        <v>4453.0</v>
+        <v>4453</v>
       </c>
       <c r="H4" t="n">
-        <v>1533.0</v>
+        <v>1533</v>
       </c>
       <c r="I4" t="n">
-        <v>13304.0</v>
+        <v>13304</v>
       </c>
       <c r="J4" t="n">
-        <v>7186.0</v>
+        <v>7186</v>
       </c>
       <c r="K4" t="n">
-        <v>17803.0</v>
+        <v>17803</v>
       </c>
       <c r="L4" t="n">
-        <v>5045.0</v>
+        <v>5045</v>
       </c>
       <c r="M4" t="n">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="N4" t="n">
-        <v>7171.0</v>
+        <v>7171</v>
       </c>
       <c r="O4" t="n">
-        <v>12709.0</v>
+        <v>12709</v>
       </c>
       <c r="P4" t="n">
-        <v>7338.0</v>
+        <v>7338</v>
       </c>
       <c r="Q4" t="n">
-        <v>4497.0</v>
+        <v>4497</v>
       </c>
       <c r="R4" t="n">
-        <v>7248.0</v>
+        <v>7248</v>
       </c>
       <c r="S4" t="n">
-        <v>3834.0</v>
+        <v>3834</v>
       </c>
       <c r="T4" t="n">
-        <v>3692.0</v>
+        <v>3692</v>
       </c>
       <c r="U4" t="n">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="V4" t="n">
-        <v>6226.0</v>
+        <v>6226</v>
       </c>
       <c r="W4" t="n">
-        <v>5314.0</v>
+        <v>5314</v>
       </c>
       <c r="X4" t="n">
-        <v>3201.0</v>
+        <v>3201</v>
       </c>
       <c r="Y4" t="n">
-        <v>6026.0</v>
+        <v>6026</v>
       </c>
       <c r="Z4" t="n">
-        <v>13284.0</v>
+        <v>13284</v>
       </c>
       <c r="AA4" t="n">
-        <v>12552.0</v>
+        <v>12552</v>
       </c>
       <c r="AB4" t="n">
-        <v>8318.0</v>
+        <v>8318</v>
       </c>
       <c r="AC4" t="n">
-        <v>4026.0</v>
+        <v>4026</v>
       </c>
       <c r="AD4" t="n">
-        <v>15964.0</v>
+        <v>15964</v>
       </c>
       <c r="AE4" t="n">
-        <v>7542.0</v>
+        <v>7542</v>
       </c>
       <c r="AF4" t="n">
-        <v>9186.0</v>
+        <v>9186</v>
       </c>
       <c r="AG4" t="n">
-        <v>19479.0</v>
+        <v>19479</v>
       </c>
       <c r="AH4" t="n">
-        <v>14032.0</v>
+        <v>14032</v>
       </c>
       <c r="AI4" t="n">
-        <v>14254.0</v>
+        <v>14254</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5824.0</v>
+        <v>5824</v>
       </c>
       <c r="AK4" t="n">
-        <v>10268.0</v>
+        <v>10268</v>
       </c>
       <c r="AL4" t="n">
-        <v>8386.0</v>
+        <v>8386</v>
       </c>
       <c r="AM4" t="n">
-        <v>10089.0</v>
+        <v>10089</v>
       </c>
       <c r="AN4" t="n">
-        <v>9312.0</v>
+        <v>9312</v>
       </c>
       <c r="AO4" t="n">
-        <v>92011.0</v>
+        <v>92011</v>
       </c>
       <c r="AP4" t="n">
-        <v>28836.0</v>
+        <v>28836</v>
       </c>
       <c r="AQ4" t="n">
-        <v>176789.0</v>
+        <v>176789</v>
       </c>
       <c r="AR4" t="n">
-        <v>46093.0</v>
+        <v>46093</v>
       </c>
       <c r="AS4" t="n">
-        <v>2874.0</v>
+        <v>2874</v>
       </c>
       <c r="AT4" t="n">
-        <v>4819.0</v>
+        <v>4819</v>
       </c>
       <c r="AU4" t="n">
-        <v>24460.0</v>
+        <v>24460</v>
       </c>
       <c r="AV4" t="n">
-        <v>5431.0</v>
+        <v>5431</v>
       </c>
       <c r="AW4" t="n">
-        <v>28388.0</v>
+        <v>28388</v>
       </c>
       <c r="AX4" t="n">
-        <v>5135.0</v>
+        <v>5135</v>
       </c>
       <c r="AY4" t="n">
-        <v>6835.0</v>
+        <v>6835</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11100.0</v>
+        <v>11100</v>
       </c>
       <c r="BA4" t="n">
-        <v>24581.0</v>
+        <v>24581</v>
       </c>
       <c r="BB4" t="n">
-        <v>84090.0</v>
+        <v>84090</v>
       </c>
       <c r="BC4" t="n">
-        <v>4164.0</v>
+        <v>4164</v>
       </c>
       <c r="BD4" t="n">
-        <v>31625.0</v>
+        <v>31625</v>
       </c>
       <c r="BE4" t="n">
-        <v>15080.0</v>
+        <v>15080</v>
       </c>
       <c r="BF4" t="n">
-        <v>7905.0</v>
+        <v>7905</v>
       </c>
       <c r="BG4" t="n">
-        <v>6408.0</v>
+        <v>6408</v>
       </c>
       <c r="BH4" t="n">
-        <v>58327.0</v>
+        <v>58327</v>
       </c>
       <c r="BI4" t="n">
-        <v>15286.0</v>
+        <v>15286</v>
       </c>
       <c r="BJ4" t="n">
-        <v>253024.0</v>
+        <v>253024</v>
       </c>
       <c r="BK4" t="n">
-        <v>137700.0</v>
+        <v>137700</v>
       </c>
       <c r="BL4" t="n">
-        <v>36636.0</v>
+        <v>36636</v>
       </c>
       <c r="BM4" t="n">
-        <v>65248.0</v>
+        <v>65248</v>
       </c>
       <c r="BN4" t="n">
-        <v>40507.0</v>
+        <v>40507</v>
       </c>
       <c r="BO4" t="n">
-        <v>7009.0</v>
+        <v>7009</v>
       </c>
       <c r="BP4" t="n">
-        <v>29364.0</v>
+        <v>29364</v>
       </c>
       <c r="BQ4" t="n">
-        <v>45006.0</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>3383.0</v>
+        <v>3383</v>
       </c>
       <c r="C5" t="n">
-        <v>2244.0</v>
+        <v>2244</v>
       </c>
       <c r="D5" t="n">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="E5" t="n">
-        <v>768.0</v>
+        <v>768</v>
       </c>
       <c r="F5" t="n">
-        <v>4416.0</v>
+        <v>4416</v>
       </c>
       <c r="G5" t="n">
-        <v>1630.0</v>
+        <v>1630</v>
       </c>
       <c r="H5" t="n">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="I5" t="n">
-        <v>4088.0</v>
+        <v>4088</v>
       </c>
       <c r="J5" t="n">
-        <v>2566.0</v>
+        <v>2566</v>
       </c>
       <c r="K5" t="n">
-        <v>5020.0</v>
+        <v>5020</v>
       </c>
       <c r="L5" t="n">
-        <v>1689.0</v>
+        <v>1689</v>
       </c>
       <c r="M5" t="n">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="N5" t="n">
-        <v>1893.0</v>
+        <v>1893</v>
       </c>
       <c r="O5" t="n">
-        <v>3384.0</v>
+        <v>3384</v>
       </c>
       <c r="P5" t="n">
-        <v>1984.0</v>
+        <v>1984</v>
       </c>
       <c r="Q5" t="n">
-        <v>1109.0</v>
+        <v>1109</v>
       </c>
       <c r="R5" t="n">
-        <v>2308.0</v>
+        <v>2308</v>
       </c>
       <c r="S5" t="n">
-        <v>1048.0</v>
+        <v>1048</v>
       </c>
       <c r="T5" t="n">
-        <v>1654.0</v>
+        <v>1654</v>
       </c>
       <c r="U5" t="n">
-        <v>575.0</v>
+        <v>575</v>
       </c>
       <c r="V5" t="n">
-        <v>2155.0</v>
+        <v>2155</v>
       </c>
       <c r="W5" t="n">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="X5" t="n">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="Y5" t="n">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="Z5" t="n">
-        <v>4124.0</v>
+        <v>4124</v>
       </c>
       <c r="AA5" t="n">
-        <v>3464.0</v>
+        <v>3464</v>
       </c>
       <c r="AB5" t="n">
-        <v>2679.0</v>
+        <v>2679</v>
       </c>
       <c r="AC5" t="n">
-        <v>1188.0</v>
+        <v>1188</v>
       </c>
       <c r="AD5" t="n">
-        <v>4550.0</v>
+        <v>4550</v>
       </c>
       <c r="AE5" t="n">
-        <v>2299.0</v>
+        <v>2299</v>
       </c>
       <c r="AF5" t="n">
-        <v>2791.0</v>
+        <v>2791</v>
       </c>
       <c r="AG5" t="n">
-        <v>6032.0</v>
+        <v>6032</v>
       </c>
       <c r="AH5" t="n">
-        <v>4476.0</v>
+        <v>4476</v>
       </c>
       <c r="AI5" t="n">
-        <v>4352.0</v>
+        <v>4352</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1766.0</v>
+        <v>1766</v>
       </c>
       <c r="AK5" t="n">
-        <v>2780.0</v>
+        <v>2780</v>
       </c>
       <c r="AL5" t="n">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="AM5" t="n">
-        <v>3431.0</v>
+        <v>3431</v>
       </c>
       <c r="AN5" t="n">
-        <v>2611.0</v>
+        <v>2611</v>
       </c>
       <c r="AO5" t="n">
-        <v>22492.0</v>
+        <v>22492</v>
       </c>
       <c r="AP5" t="n">
-        <v>6611.0</v>
+        <v>6611</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45804.0</v>
+        <v>45804</v>
       </c>
       <c r="AR5" t="n">
-        <v>11803.0</v>
+        <v>11803</v>
       </c>
       <c r="AS5" t="n">
-        <v>853.0</v>
+        <v>853</v>
       </c>
       <c r="AT5" t="n">
-        <v>1529.0</v>
+        <v>1529</v>
       </c>
       <c r="AU5" t="n">
-        <v>7528.0</v>
+        <v>7528</v>
       </c>
       <c r="AV5" t="n">
-        <v>1446.0</v>
+        <v>1446</v>
       </c>
       <c r="AW5" t="n">
-        <v>5185.0</v>
+        <v>5185</v>
       </c>
       <c r="AX5" t="n">
-        <v>1478.0</v>
+        <v>1478</v>
       </c>
       <c r="AY5" t="n">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3488.0</v>
+        <v>3488</v>
       </c>
       <c r="BA5" t="n">
-        <v>7234.0</v>
+        <v>7234</v>
       </c>
       <c r="BB5" t="n">
-        <v>26389.0</v>
+        <v>26389</v>
       </c>
       <c r="BC5" t="n">
-        <v>1155.0</v>
+        <v>1155</v>
       </c>
       <c r="BD5" t="n">
-        <v>8245.0</v>
+        <v>8245</v>
       </c>
       <c r="BE5" t="n">
-        <v>3915.0</v>
+        <v>3915</v>
       </c>
       <c r="BF5" t="n">
-        <v>1763.0</v>
+        <v>1763</v>
       </c>
       <c r="BG5" t="n">
-        <v>1423.0</v>
+        <v>1423</v>
       </c>
       <c r="BH5" t="n">
-        <v>15789.0</v>
+        <v>15789</v>
       </c>
       <c r="BI5" t="n">
-        <v>4211.0</v>
+        <v>4211</v>
       </c>
       <c r="BJ5" t="n">
-        <v>50992.0</v>
+        <v>50992</v>
       </c>
       <c r="BK5" t="n">
-        <v>16991.0</v>
+        <v>16991</v>
       </c>
       <c r="BL5" t="n">
-        <v>7533.0</v>
+        <v>7533</v>
       </c>
       <c r="BM5" t="n">
-        <v>7885.0</v>
+        <v>7885</v>
       </c>
       <c r="BN5" t="n">
-        <v>6452.0</v>
+        <v>6452</v>
       </c>
       <c r="BO5" t="n">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="BP5" t="n">
-        <v>4780.0</v>
+        <v>4780</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2359.0</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>3382.0</v>
+        <v>3382</v>
       </c>
       <c r="C6" t="n">
-        <v>2244.0</v>
+        <v>2244</v>
       </c>
       <c r="D6" t="n">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="E6" t="n">
-        <v>726.0</v>
+        <v>726</v>
       </c>
       <c r="F6" t="n">
-        <v>3759.0</v>
+        <v>3759</v>
       </c>
       <c r="G6" t="n">
-        <v>1376.0</v>
+        <v>1376</v>
       </c>
       <c r="H6" t="n">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="I6" t="n">
-        <v>3959.0</v>
+        <v>3959</v>
       </c>
       <c r="J6" t="n">
-        <v>2527.0</v>
+        <v>2527</v>
       </c>
       <c r="K6" t="n">
-        <v>4833.0</v>
+        <v>4833</v>
       </c>
       <c r="L6" t="n">
-        <v>1566.0</v>
+        <v>1566</v>
       </c>
       <c r="M6" t="n">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="N6" t="n">
-        <v>1881.0</v>
+        <v>1881</v>
       </c>
       <c r="O6" t="n">
-        <v>3368.0</v>
+        <v>3368</v>
       </c>
       <c r="P6" t="n">
-        <v>1967.0</v>
+        <v>1967</v>
       </c>
       <c r="Q6" t="n">
-        <v>1081.0</v>
+        <v>1081</v>
       </c>
       <c r="R6" t="n">
-        <v>2167.0</v>
+        <v>2167</v>
       </c>
       <c r="S6" t="n">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="T6" t="n">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="U6" t="n">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="V6" t="n">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="W6" t="n">
-        <v>1579.0</v>
+        <v>1579</v>
       </c>
       <c r="X6" t="n">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="Y6" t="n">
-        <v>1785.0</v>
+        <v>1785</v>
       </c>
       <c r="Z6" t="n">
-        <v>3938.0</v>
+        <v>3938</v>
       </c>
       <c r="AA6" t="n">
-        <v>3359.0</v>
+        <v>3359</v>
       </c>
       <c r="AB6" t="n">
-        <v>2489.0</v>
+        <v>2489</v>
       </c>
       <c r="AC6" t="n">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="AD6" t="n">
-        <v>4369.0</v>
+        <v>4369</v>
       </c>
       <c r="AE6" t="n">
-        <v>2173.0</v>
+        <v>2173</v>
       </c>
       <c r="AF6" t="n">
-        <v>2630.0</v>
+        <v>2630</v>
       </c>
       <c r="AG6" t="n">
-        <v>5756.0</v>
+        <v>5756</v>
       </c>
       <c r="AH6" t="n">
-        <v>4121.0</v>
+        <v>4121</v>
       </c>
       <c r="AI6" t="n">
-        <v>4202.0</v>
+        <v>4202</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1678.0</v>
+        <v>1678</v>
       </c>
       <c r="AK6" t="n">
-        <v>2698.0</v>
+        <v>2698</v>
       </c>
       <c r="AL6" t="n">
-        <v>1915.0</v>
+        <v>1915</v>
       </c>
       <c r="AM6" t="n">
-        <v>2845.0</v>
+        <v>2845</v>
       </c>
       <c r="AN6" t="n">
-        <v>2532.0</v>
+        <v>2532</v>
       </c>
       <c r="AO6" t="n">
-        <v>21816.0</v>
+        <v>21816</v>
       </c>
       <c r="AP6" t="n">
-        <v>6537.0</v>
+        <v>6537</v>
       </c>
       <c r="AQ6" t="n">
-        <v>44957.0</v>
+        <v>44957</v>
       </c>
       <c r="AR6" t="n">
-        <v>11540.0</v>
+        <v>11540</v>
       </c>
       <c r="AS6" t="n">
-        <v>834.0</v>
+        <v>834</v>
       </c>
       <c r="AT6" t="n">
-        <v>1436.0</v>
+        <v>1436</v>
       </c>
       <c r="AU6" t="n">
-        <v>7006.0</v>
+        <v>7006</v>
       </c>
       <c r="AV6" t="n">
-        <v>1418.0</v>
+        <v>1418</v>
       </c>
       <c r="AW6" t="n">
-        <v>5132.0</v>
+        <v>5132</v>
       </c>
       <c r="AX6" t="n">
-        <v>1374.0</v>
+        <v>1374</v>
       </c>
       <c r="AY6" t="n">
-        <v>1835.0</v>
+        <v>1835</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3086.0</v>
+        <v>3086</v>
       </c>
       <c r="BA6" t="n">
-        <v>6852.0</v>
+        <v>6852</v>
       </c>
       <c r="BB6" t="n">
-        <v>19640.0</v>
+        <v>19640</v>
       </c>
       <c r="BC6" t="n">
-        <v>1092.0</v>
+        <v>1092</v>
       </c>
       <c r="BD6" t="n">
-        <v>7672.0</v>
+        <v>7672</v>
       </c>
       <c r="BE6" t="n">
-        <v>3823.0</v>
+        <v>3823</v>
       </c>
       <c r="BF6" t="n">
-        <v>1737.0</v>
+        <v>1737</v>
       </c>
       <c r="BG6" t="n">
-        <v>1389.0</v>
+        <v>1389</v>
       </c>
       <c r="BH6" t="n">
-        <v>15474.0</v>
+        <v>15474</v>
       </c>
       <c r="BI6" t="n">
-        <v>4135.0</v>
+        <v>4135</v>
       </c>
       <c r="BJ6" t="n">
-        <v>50689.0</v>
+        <v>50689</v>
       </c>
       <c r="BK6" t="n">
-        <v>16962.0</v>
+        <v>16962</v>
       </c>
       <c r="BL6" t="n">
-        <v>7264.0</v>
+        <v>7264</v>
       </c>
       <c r="BM6" t="n">
-        <v>7883.0</v>
+        <v>7883</v>
       </c>
       <c r="BN6" t="n">
-        <v>6210.0</v>
+        <v>6210</v>
       </c>
       <c r="BO6" t="n">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="BP6" t="n">
-        <v>4657.0</v>
+        <v>4657</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2359.0</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
-        <v>657.0</v>
+        <v>657</v>
       </c>
       <c r="G7" t="n">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="H7" t="n">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="J7" t="n">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="L7" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="M7" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="N7" t="n">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="R7" t="n">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="S7" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0</v>
+        <v>574</v>
       </c>
       <c r="U7" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="V7" t="n">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="W7" t="n">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="X7" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="Z7" t="n">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="AB7" t="n">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="AC7" t="n">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AD7" t="n">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="AE7" t="n">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="AF7" t="n">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="AG7" t="n">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="AH7" t="n">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="AI7" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="n">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="AK7" t="n">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="n">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="n">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="AN7" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="n">
-        <v>676.0</v>
+        <v>676</v>
       </c>
       <c r="AP7" t="n">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="AQ7" t="n">
-        <v>847.0</v>
+        <v>847</v>
       </c>
       <c r="AR7" t="n">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="AS7" t="n">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AU7" t="n">
-        <v>522.0</v>
+        <v>522</v>
       </c>
       <c r="AV7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AW7" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AX7" t="n">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="AY7" t="n">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="AZ7" t="n">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="BA7" t="n">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="BB7" t="n">
-        <v>6749.0</v>
+        <v>6749</v>
       </c>
       <c r="BC7" t="n">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="BD7" t="n">
-        <v>573.0</v>
+        <v>573</v>
       </c>
       <c r="BE7" t="n">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="BF7" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="BG7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="BH7" t="n">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="BI7" t="n">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="BJ7" t="n">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="BK7" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="BL7" t="n">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BN7" t="n">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="BO7" t="n">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="BP7" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>49917.0</v>
+        <v>49917</v>
       </c>
       <c r="BK8" t="n">
-        <v>2708.0</v>
+        <v>2708</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>4599.0</v>
+        <v>4599</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>113677.0</v>
+        <v>113677</v>
       </c>
       <c r="C9" t="n">
-        <v>33935.0</v>
+        <v>33935</v>
       </c>
       <c r="D9" t="n">
-        <v>17473.0</v>
+        <v>17473</v>
       </c>
       <c r="E9" t="n">
-        <v>4671.0</v>
+        <v>4671</v>
       </c>
       <c r="F9" t="n">
-        <v>107274.0</v>
+        <v>107274</v>
       </c>
       <c r="G9" t="n">
-        <v>42957.0</v>
+        <v>42957</v>
       </c>
       <c r="H9" t="n">
-        <v>1767.0</v>
+        <v>1767</v>
       </c>
       <c r="I9" t="n">
-        <v>9359.0</v>
+        <v>9359</v>
       </c>
       <c r="J9" t="n">
-        <v>4286.0</v>
+        <v>4286</v>
       </c>
       <c r="K9" t="n">
-        <v>12258.0</v>
+        <v>12258</v>
       </c>
       <c r="L9" t="n">
-        <v>13250.0</v>
+        <v>13250</v>
       </c>
       <c r="M9" t="n">
-        <v>3102.0</v>
+        <v>3102</v>
       </c>
       <c r="N9" t="n">
-        <v>4194.0</v>
+        <v>4194</v>
       </c>
       <c r="O9" t="n">
-        <v>8182.0</v>
+        <v>8182</v>
       </c>
       <c r="P9" t="n">
-        <v>2907.0</v>
+        <v>2907</v>
       </c>
       <c r="Q9" t="n">
-        <v>3716.0</v>
+        <v>3716</v>
       </c>
       <c r="R9" t="n">
-        <v>5522.0</v>
+        <v>5522</v>
       </c>
       <c r="S9" t="n">
-        <v>3048.0</v>
+        <v>3048</v>
       </c>
       <c r="T9" t="n">
-        <v>-33084.0</v>
+        <v>-33084</v>
       </c>
       <c r="U9" t="n">
-        <v>1398.0</v>
+        <v>1398</v>
       </c>
       <c r="V9" t="n">
-        <v>4066.0</v>
+        <v>4066</v>
       </c>
       <c r="W9" t="n">
-        <v>3614.0</v>
+        <v>3614</v>
       </c>
       <c r="X9" t="n">
-        <v>1823.0</v>
+        <v>1823</v>
       </c>
       <c r="Y9" t="n">
-        <v>13187.0</v>
+        <v>13187</v>
       </c>
       <c r="Z9" t="n">
-        <v>5288.0</v>
+        <v>5288</v>
       </c>
       <c r="AA9" t="n">
-        <v>10792.0</v>
+        <v>10792</v>
       </c>
       <c r="AB9" t="n">
-        <v>11939.0</v>
+        <v>11939</v>
       </c>
       <c r="AC9" t="n">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="AD9" t="n">
-        <v>11993.0</v>
+        <v>11993</v>
       </c>
       <c r="AE9" t="n">
-        <v>4719.0</v>
+        <v>4719</v>
       </c>
       <c r="AF9" t="n">
-        <v>3390.0</v>
+        <v>3390</v>
       </c>
       <c r="AG9" t="n">
-        <v>8799.0</v>
+        <v>8799</v>
       </c>
       <c r="AH9" t="n">
-        <v>14547.0</v>
+        <v>14547</v>
       </c>
       <c r="AI9" t="n">
-        <v>4257.0</v>
+        <v>4257</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2654.0</v>
+        <v>2654</v>
       </c>
       <c r="AK9" t="n">
-        <v>15851.0</v>
+        <v>15851</v>
       </c>
       <c r="AL9" t="n">
-        <v>9055.0</v>
+        <v>9055</v>
       </c>
       <c r="AM9" t="n">
-        <v>54259.0</v>
+        <v>54259</v>
       </c>
       <c r="AN9" t="n">
-        <v>19257.0</v>
+        <v>19257</v>
       </c>
       <c r="AO9" t="n">
-        <v>147751.0</v>
+        <v>147751</v>
       </c>
       <c r="AP9" t="n">
-        <v>43494.0</v>
+        <v>43494</v>
       </c>
       <c r="AQ9" t="n">
-        <v>239850.0</v>
+        <v>239850</v>
       </c>
       <c r="AR9" t="n">
-        <v>60077.0</v>
+        <v>60077</v>
       </c>
       <c r="AS9" t="n">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="AT9" t="n">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="AU9" t="n">
-        <v>19502.0</v>
+        <v>19502</v>
       </c>
       <c r="AV9" t="n">
-        <v>3102.0</v>
+        <v>3102</v>
       </c>
       <c r="AW9" t="n">
-        <v>49569.0</v>
+        <v>49569</v>
       </c>
       <c r="AX9" t="n">
-        <v>3169.0</v>
+        <v>3169</v>
       </c>
       <c r="AY9" t="n">
-        <v>5938.0</v>
+        <v>5938</v>
       </c>
       <c r="AZ9" t="n">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="BA9" t="n">
-        <v>26468.0</v>
+        <v>26468</v>
       </c>
       <c r="BB9" t="n">
-        <v>145140.0</v>
+        <v>145140</v>
       </c>
       <c r="BC9" t="n">
-        <v>353400.0</v>
+        <v>353400</v>
       </c>
       <c r="BD9" t="n">
-        <v>54947.0</v>
+        <v>54947</v>
       </c>
       <c r="BE9" t="n">
-        <v>20431.0</v>
+        <v>20431</v>
       </c>
       <c r="BF9" t="n">
-        <v>16442.0</v>
+        <v>16442</v>
       </c>
       <c r="BG9" t="n">
-        <v>16695.0</v>
+        <v>16695</v>
       </c>
       <c r="BH9" t="n">
-        <v>36445.0</v>
+        <v>36445</v>
       </c>
       <c r="BI9" t="n">
-        <v>1926.0</v>
+        <v>1926</v>
       </c>
       <c r="BJ9" t="n">
-        <v>51115.0</v>
+        <v>51115</v>
       </c>
       <c r="BK9" t="n">
-        <v>7811.0</v>
+        <v>7811</v>
       </c>
       <c r="BL9" t="n">
-        <v>4411.0</v>
+        <v>4411</v>
       </c>
       <c r="BM9" t="n">
-        <v>4011.0</v>
+        <v>4011</v>
       </c>
       <c r="BN9" t="n">
-        <v>40227.0</v>
+        <v>40227</v>
       </c>
       <c r="BO9" t="n">
-        <v>7331.0</v>
+        <v>7331</v>
       </c>
       <c r="BP9" t="n">
-        <v>24711.0</v>
+        <v>24711</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>58683.0</v>
+        <v>58683</v>
       </c>
       <c r="C10" t="n">
-        <v>25886.0</v>
+        <v>25886</v>
       </c>
       <c r="D10" t="n">
-        <v>8450.0</v>
+        <v>8450</v>
       </c>
       <c r="E10" t="n">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3029.0</v>
+        <v>3029</v>
       </c>
       <c r="L10" t="n">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="O10" t="n">
-        <v>6771.0</v>
+        <v>6771</v>
       </c>
       <c r="P10" t="n">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="Q10" t="n">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="R10" t="n">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="S10" t="n">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="AA10" t="n">
-        <v>794.0</v>
+        <v>794</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2065.0</v>
+        <v>2065</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
-        <v>1516.0</v>
+        <v>1516</v>
       </c>
       <c r="AL10" t="n">
-        <v>3999.0</v>
+        <v>3999</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1387.0</v>
+        <v>1387</v>
       </c>
       <c r="AO10" t="n">
-        <v>62929.0</v>
+        <v>62929</v>
       </c>
       <c r="AP10" t="n">
-        <v>18179.0</v>
+        <v>18179</v>
       </c>
       <c r="AQ10" t="n">
-        <v>50262.0</v>
+        <v>50262</v>
       </c>
       <c r="AR10" t="n">
-        <v>22263.0</v>
+        <v>22263</v>
       </c>
       <c r="AS10" t="n">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="AV10" t="n">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="AW10" t="n">
-        <v>30464.0</v>
+        <v>30464</v>
       </c>
       <c r="AX10" t="n">
-        <v>711.0</v>
+        <v>711</v>
       </c>
       <c r="AY10" t="n">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="AZ10" t="n">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="BA10" t="n">
-        <v>5272.0</v>
+        <v>5272</v>
       </c>
       <c r="BB10" t="n">
-        <v>1773.0</v>
+        <v>1773</v>
       </c>
       <c r="BC10" t="n">
-        <v>4064.0</v>
+        <v>4064</v>
       </c>
       <c r="BD10" t="n">
-        <v>24091.0</v>
+        <v>24091</v>
       </c>
       <c r="BE10" t="n">
-        <v>9160.0</v>
+        <v>9160</v>
       </c>
       <c r="BF10" t="n">
-        <v>5208.0</v>
+        <v>5208</v>
       </c>
       <c r="BG10" t="n">
-        <v>673.0</v>
+        <v>673</v>
       </c>
       <c r="BH10" t="n">
-        <v>4329.0</v>
+        <v>4329</v>
       </c>
       <c r="BI10" t="n">
-        <v>718.0</v>
+        <v>718</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>4189.0</v>
+        <v>4189</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>21445.0</v>
+        <v>21445</v>
       </c>
       <c r="BO10" t="n">
-        <v>5283.0</v>
+        <v>5283</v>
       </c>
       <c r="BP10" t="n">
-        <v>19365.0</v>
+        <v>19365</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>54994.0</v>
+        <v>54994</v>
       </c>
       <c r="C11" t="n">
-        <v>8049.0</v>
+        <v>8049</v>
       </c>
       <c r="D11" t="n">
-        <v>9023.0</v>
+        <v>9023</v>
       </c>
       <c r="E11" t="n">
-        <v>4320.0</v>
+        <v>4320</v>
       </c>
       <c r="F11" t="n">
-        <v>107274.0</v>
+        <v>107274</v>
       </c>
       <c r="G11" t="n">
-        <v>42957.0</v>
+        <v>42957</v>
       </c>
       <c r="H11" t="n">
-        <v>1767.0</v>
+        <v>1767</v>
       </c>
       <c r="I11" t="n">
-        <v>9073.0</v>
+        <v>9073</v>
       </c>
       <c r="J11" t="n">
-        <v>4286.0</v>
+        <v>4286</v>
       </c>
       <c r="K11" t="n">
-        <v>9229.0</v>
+        <v>9229</v>
       </c>
       <c r="L11" t="n">
-        <v>13228.0</v>
+        <v>13228</v>
       </c>
       <c r="M11" t="n">
-        <v>3102.0</v>
+        <v>3102</v>
       </c>
       <c r="N11" t="n">
-        <v>2679.0</v>
+        <v>2679</v>
       </c>
       <c r="O11" t="n">
-        <v>1411.0</v>
+        <v>1411</v>
       </c>
       <c r="P11" t="n">
-        <v>2382.0</v>
+        <v>2382</v>
       </c>
       <c r="Q11" t="n">
-        <v>2486.0</v>
+        <v>2486</v>
       </c>
       <c r="R11" t="n">
-        <v>5308.0</v>
+        <v>5308</v>
       </c>
       <c r="S11" t="n">
-        <v>2537.0</v>
+        <v>2537</v>
       </c>
       <c r="T11" t="n">
-        <v>-33084.0</v>
+        <v>-33084</v>
       </c>
       <c r="U11" t="n">
-        <v>1398.0</v>
+        <v>1398</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.0</v>
+        <v>4066</v>
       </c>
       <c r="W11" t="n">
-        <v>3614.0</v>
+        <v>3614</v>
       </c>
       <c r="X11" t="n">
-        <v>1717.0</v>
+        <v>1717</v>
       </c>
       <c r="Y11" t="n">
-        <v>13187.0</v>
+        <v>13187</v>
       </c>
       <c r="Z11" t="n">
-        <v>5080.0</v>
+        <v>5080</v>
       </c>
       <c r="AA11" t="n">
-        <v>9998.0</v>
+        <v>9998</v>
       </c>
       <c r="AB11" t="n">
-        <v>11939.0</v>
+        <v>11939</v>
       </c>
       <c r="AC11" t="n">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="AD11" t="n">
-        <v>9928.0</v>
+        <v>9928</v>
       </c>
       <c r="AE11" t="n">
-        <v>4719.0</v>
+        <v>4719</v>
       </c>
       <c r="AF11" t="n">
-        <v>3390.0</v>
+        <v>3390</v>
       </c>
       <c r="AG11" t="n">
-        <v>8799.0</v>
+        <v>8799</v>
       </c>
       <c r="AH11" t="n">
-        <v>14547.0</v>
+        <v>14547</v>
       </c>
       <c r="AI11" t="n">
-        <v>4210.0</v>
+        <v>4210</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2603.0</v>
+        <v>2603</v>
       </c>
       <c r="AK11" t="n">
-        <v>14335.0</v>
+        <v>14335</v>
       </c>
       <c r="AL11" t="n">
-        <v>5056.0</v>
+        <v>5056</v>
       </c>
       <c r="AM11" t="n">
-        <v>54259.0</v>
+        <v>54259</v>
       </c>
       <c r="AN11" t="n">
-        <v>17870.0</v>
+        <v>17870</v>
       </c>
       <c r="AO11" t="n">
-        <v>84822.0</v>
+        <v>84822</v>
       </c>
       <c r="AP11" t="n">
-        <v>25315.0</v>
+        <v>25315</v>
       </c>
       <c r="AQ11" t="n">
-        <v>189588.0</v>
+        <v>189588</v>
       </c>
       <c r="AR11" t="n">
-        <v>37814.0</v>
+        <v>37814</v>
       </c>
       <c r="AS11" t="n">
-        <v>567.0</v>
+        <v>567</v>
       </c>
       <c r="AT11" t="n">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="AU11" t="n">
-        <v>18577.0</v>
+        <v>18577</v>
       </c>
       <c r="AV11" t="n">
-        <v>2632.0</v>
+        <v>2632</v>
       </c>
       <c r="AW11" t="n">
-        <v>19105.0</v>
+        <v>19105</v>
       </c>
       <c r="AX11" t="n">
-        <v>2458.0</v>
+        <v>2458</v>
       </c>
       <c r="AY11" t="n">
-        <v>5409.0</v>
+        <v>5409</v>
       </c>
       <c r="AZ11" t="n">
-        <v>44346.0</v>
+        <v>44346</v>
       </c>
       <c r="BA11" t="n">
-        <v>21196.0</v>
+        <v>21196</v>
       </c>
       <c r="BB11" t="n">
-        <v>143367.0</v>
+        <v>143367</v>
       </c>
       <c r="BC11" t="n">
-        <v>349336.0</v>
+        <v>349336</v>
       </c>
       <c r="BD11" t="n">
-        <v>30856.0</v>
+        <v>30856</v>
       </c>
       <c r="BE11" t="n">
-        <v>11271.0</v>
+        <v>11271</v>
       </c>
       <c r="BF11" t="n">
-        <v>11234.0</v>
+        <v>11234</v>
       </c>
       <c r="BG11" t="n">
-        <v>16022.0</v>
+        <v>16022</v>
       </c>
       <c r="BH11" t="n">
-        <v>32116.0</v>
+        <v>32116</v>
       </c>
       <c r="BI11" t="n">
-        <v>1208.0</v>
+        <v>1208</v>
       </c>
       <c r="BJ11" t="n">
-        <v>51115.0</v>
+        <v>51115</v>
       </c>
       <c r="BK11" t="n">
-        <v>7811.0</v>
+        <v>7811</v>
       </c>
       <c r="BL11" t="n">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="BM11" t="n">
-        <v>4011.0</v>
+        <v>4011</v>
       </c>
       <c r="BN11" t="n">
-        <v>18782.0</v>
+        <v>18782</v>
       </c>
       <c r="BO11" t="n">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="BP11" t="n">
-        <v>5346.0</v>
+        <v>5346</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>878.0</v>
+        <v>878</v>
       </c>
       <c r="C12" t="n">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="D12" t="n">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="F12" t="n">
-        <v>1017.0</v>
+        <v>1017</v>
       </c>
       <c r="G12" t="n">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="H12" t="n">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="I12" t="n">
-        <v>1136.0</v>
+        <v>1136</v>
       </c>
       <c r="J12" t="n">
-        <v>646.0</v>
+        <v>646</v>
       </c>
       <c r="K12" t="n">
-        <v>1498.0</v>
+        <v>1498</v>
       </c>
       <c r="L12" t="n">
-        <v>587.0</v>
+        <v>587</v>
       </c>
       <c r="M12" t="n">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="N12" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="O12" t="n">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="P12" t="n">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="R12" t="n">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="S12" t="n">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="T12" t="n">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="U12" t="n">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="V12" t="n">
-        <v>647.0</v>
+        <v>647</v>
       </c>
       <c r="W12" t="n">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="X12" t="n">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="Y12" t="n">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="Z12" t="n">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="AA12" t="n">
-        <v>647.0</v>
+        <v>647</v>
       </c>
       <c r="AB12" t="n">
-        <v>624.0</v>
+        <v>624</v>
       </c>
       <c r="AC12" t="n">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="AD12" t="n">
-        <v>776.0</v>
+        <v>776</v>
       </c>
       <c r="AE12" t="n">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="AF12" t="n">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="AG12" t="n">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="AH12" t="n">
-        <v>1068.0</v>
+        <v>1068</v>
       </c>
       <c r="AI12" t="n">
-        <v>733.0</v>
+        <v>733</v>
       </c>
       <c r="AJ12" t="n">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="AK12" t="n">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="AL12" t="n">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="AM12" t="n">
-        <v>1483.0</v>
+        <v>1483</v>
       </c>
       <c r="AN12" t="n">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="AO12" t="n">
-        <v>3400.0</v>
+        <v>3400</v>
       </c>
       <c r="AP12" t="n">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6802.0</v>
+        <v>6802</v>
       </c>
       <c r="AR12" t="n">
-        <v>1944.0</v>
+        <v>1944</v>
       </c>
       <c r="AS12" t="n">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="AT12" t="n">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="AU12" t="n">
-        <v>1224.0</v>
+        <v>1224</v>
       </c>
       <c r="AV12" t="n">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="AW12" t="n">
-        <v>896.0</v>
+        <v>896</v>
       </c>
       <c r="AX12" t="n">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="AY12" t="n">
-        <v>846.0</v>
+        <v>846</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4347.0</v>
+        <v>4347</v>
       </c>
       <c r="BA12" t="n">
-        <v>968.0</v>
+        <v>968</v>
       </c>
       <c r="BB12" t="n">
-        <v>4693.0</v>
+        <v>4693</v>
       </c>
       <c r="BC12" t="n">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="BD12" t="n">
-        <v>1322.0</v>
+        <v>1322</v>
       </c>
       <c r="BE12" t="n">
-        <v>866.0</v>
+        <v>866</v>
       </c>
       <c r="BF12" t="n">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="BG12" t="n">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="BH12" t="n">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="BI12" t="n">
-        <v>577.0</v>
+        <v>577</v>
       </c>
       <c r="BJ12" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="BK12" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="BL12" t="n">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1372.0</v>
+        <v>1372</v>
       </c>
       <c r="BO12" t="n">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="BP12" t="n">
-        <v>733.0</v>
+        <v>733</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-7120.0</v>
+        <v>-7120</v>
       </c>
       <c r="C13" t="n">
-        <v>-104.0</v>
+        <v>-104</v>
       </c>
       <c r="D13" t="n">
-        <v>-44.0</v>
+        <v>-44</v>
       </c>
       <c r="E13" t="n">
-        <v>-64.0</v>
+        <v>-64</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-81.0</v>
+        <v>-81</v>
       </c>
       <c r="J13" t="n">
-        <v>-91.0</v>
+        <v>-91</v>
       </c>
       <c r="K13" t="n">
-        <v>-78.0</v>
+        <v>-78</v>
       </c>
       <c r="L13" t="n">
-        <v>-32.0</v>
+        <v>-32</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-33.0</v>
+        <v>-33</v>
       </c>
       <c r="R13" t="n">
-        <v>-67.0</v>
+        <v>-67</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-54.0</v>
+        <v>-54</v>
       </c>
       <c r="U13" t="n">
-        <v>-77.0</v>
+        <v>-77</v>
       </c>
       <c r="V13" t="n">
-        <v>-19.0</v>
+        <v>-19</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-79.0</v>
+        <v>-79</v>
       </c>
       <c r="AA13" t="n">
-        <v>-102.0</v>
+        <v>-102</v>
       </c>
       <c r="AB13" t="n">
-        <v>-16.0</v>
+        <v>-16</v>
       </c>
       <c r="AC13" t="n">
-        <v>-80.0</v>
+        <v>-80</v>
       </c>
       <c r="AD13" t="n">
-        <v>-75.0</v>
+        <v>-75</v>
       </c>
       <c r="AE13" t="n">
-        <v>-43.0</v>
+        <v>-43</v>
       </c>
       <c r="AF13" t="n">
-        <v>-57.0</v>
+        <v>-57</v>
       </c>
       <c r="AG13" t="n">
-        <v>-195.0</v>
+        <v>-195</v>
       </c>
       <c r="AH13" t="n">
-        <v>-202.0</v>
+        <v>-202</v>
       </c>
       <c r="AI13" t="n">
-        <v>-85.0</v>
+        <v>-85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-76.0</v>
+        <v>-76</v>
       </c>
       <c r="AK13" t="n">
-        <v>-24.0</v>
+        <v>-24</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-634.0</v>
+        <v>-634</v>
       </c>
       <c r="AN13" t="n">
-        <v>-29.0</v>
+        <v>-29</v>
       </c>
       <c r="AO13" t="n">
-        <v>-417.0</v>
+        <v>-417</v>
       </c>
       <c r="AP13" t="n">
-        <v>-27.0</v>
+        <v>-27</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-785.0</v>
+        <v>-785</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1298.0</v>
+        <v>-1298</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-67.0</v>
+        <v>-67</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-106.0</v>
+        <v>-106</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-146.0</v>
+        <v>-146</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-153.0</v>
+        <v>-153</v>
       </c>
       <c r="BH13" t="n">
-        <v>-31.0</v>
+        <v>-31</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>227727.0</v>
+        <v>227727</v>
       </c>
       <c r="C14" t="n">
-        <v>101333.0</v>
+        <v>101333</v>
       </c>
       <c r="D14" t="n">
-        <v>27075.0</v>
+        <v>27075</v>
       </c>
       <c r="E14" t="n">
-        <v>18120.0</v>
+        <v>18120</v>
       </c>
       <c r="F14" t="n">
-        <v>189352.0</v>
+        <v>189352</v>
       </c>
       <c r="G14" t="n">
-        <v>71577.0</v>
+        <v>71577</v>
       </c>
       <c r="H14" t="n">
-        <v>11594.0</v>
+        <v>11594</v>
       </c>
       <c r="I14" t="n">
-        <v>180797.0</v>
+        <v>180797</v>
       </c>
       <c r="J14" t="n">
-        <v>60321.0</v>
+        <v>60321</v>
       </c>
       <c r="K14" t="n">
-        <v>206681.0</v>
+        <v>206681</v>
       </c>
       <c r="L14" t="n">
-        <v>61017.0</v>
+        <v>61017</v>
       </c>
       <c r="M14" t="n">
-        <v>14393.0</v>
+        <v>14393</v>
       </c>
       <c r="N14" t="n">
-        <v>44843.0</v>
+        <v>44843</v>
       </c>
       <c r="O14" t="n">
-        <v>59280.0</v>
+        <v>59280</v>
       </c>
       <c r="P14" t="n">
-        <v>35500.0</v>
+        <v>35500</v>
       </c>
       <c r="Q14" t="n">
-        <v>24419.0</v>
+        <v>24419</v>
       </c>
       <c r="R14" t="n">
-        <v>61856.0</v>
+        <v>61856</v>
       </c>
       <c r="S14" t="n">
-        <v>19048.0</v>
+        <v>19048</v>
       </c>
       <c r="T14" t="n">
-        <v>278316.0</v>
+        <v>278316</v>
       </c>
       <c r="U14" t="n">
-        <v>22280.0</v>
+        <v>22280</v>
       </c>
       <c r="V14" t="n">
-        <v>114237.0</v>
+        <v>114237</v>
       </c>
       <c r="W14" t="n">
-        <v>54929.0</v>
+        <v>54929</v>
       </c>
       <c r="X14" t="n">
-        <v>29424.0</v>
+        <v>29424</v>
       </c>
       <c r="Y14" t="n">
-        <v>47025.0</v>
+        <v>47025</v>
       </c>
       <c r="Z14" t="n">
-        <v>86683.0</v>
+        <v>86683</v>
       </c>
       <c r="AA14" t="n">
-        <v>79375.0</v>
+        <v>79375</v>
       </c>
       <c r="AB14" t="n">
-        <v>96084.0</v>
+        <v>96084</v>
       </c>
       <c r="AC14" t="n">
-        <v>42116.0</v>
+        <v>42116</v>
       </c>
       <c r="AD14" t="n">
-        <v>86563.0</v>
+        <v>86563</v>
       </c>
       <c r="AE14" t="n">
-        <v>75942.0</v>
+        <v>75942</v>
       </c>
       <c r="AF14" t="n">
-        <v>64375.0</v>
+        <v>64375</v>
       </c>
       <c r="AG14" t="n">
-        <v>113857.0</v>
+        <v>113857</v>
       </c>
       <c r="AH14" t="n">
-        <v>166703.0</v>
+        <v>166703</v>
       </c>
       <c r="AI14" t="n">
-        <v>81034.0</v>
+        <v>81034</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38542.0</v>
+        <v>38542</v>
       </c>
       <c r="AK14" t="n">
-        <v>63871.0</v>
+        <v>63871</v>
       </c>
       <c r="AL14" t="n">
-        <v>49956.0</v>
+        <v>49956</v>
       </c>
       <c r="AM14" t="n">
-        <v>183689.0</v>
+        <v>183689</v>
       </c>
       <c r="AN14" t="n">
-        <v>50762.0</v>
+        <v>50762</v>
       </c>
       <c r="AO14" t="n">
-        <v>575780.0</v>
+        <v>575780</v>
       </c>
       <c r="AP14" t="n">
-        <v>133105.0</v>
+        <v>133105</v>
       </c>
       <c r="AQ14" t="n">
-        <v>723894.0</v>
+        <v>723894</v>
       </c>
       <c r="AR14" t="n">
-        <v>259972.0</v>
+        <v>259972</v>
       </c>
       <c r="AS14" t="n">
-        <v>14082.0</v>
+        <v>14082</v>
       </c>
       <c r="AT14" t="n">
-        <v>31066.0</v>
+        <v>31066</v>
       </c>
       <c r="AU14" t="n">
-        <v>88526.0</v>
+        <v>88526</v>
       </c>
       <c r="AV14" t="n">
-        <v>18254.0</v>
+        <v>18254</v>
       </c>
       <c r="AW14" t="n">
-        <v>174921.0</v>
+        <v>174921</v>
       </c>
       <c r="AX14" t="n">
-        <v>22192.0</v>
+        <v>22192</v>
       </c>
       <c r="AY14" t="n">
-        <v>34934.0</v>
+        <v>34934</v>
       </c>
       <c r="AZ14" t="n">
-        <v>155631.0</v>
+        <v>155631</v>
       </c>
       <c r="BA14" t="n">
-        <v>88794.0</v>
+        <v>88794</v>
       </c>
       <c r="BB14" t="n">
-        <v>426909.0</v>
+        <v>426909</v>
       </c>
       <c r="BC14" t="n">
-        <v>392836.0</v>
+        <v>392836</v>
       </c>
       <c r="BD14" t="n">
-        <v>140913.0</v>
+        <v>140913</v>
       </c>
       <c r="BE14" t="n">
-        <v>64350.0</v>
+        <v>64350</v>
       </c>
       <c r="BF14" t="n">
-        <v>76738.0</v>
+        <v>76738</v>
       </c>
       <c r="BG14" t="n">
-        <v>37069.0</v>
+        <v>37069</v>
       </c>
       <c r="BH14" t="n">
-        <v>164913.0</v>
+        <v>164913</v>
       </c>
       <c r="BI14" t="n">
-        <v>26984.0</v>
+        <v>26984</v>
       </c>
       <c r="BJ14" t="n">
-        <v>577618.0</v>
+        <v>577618</v>
       </c>
       <c r="BK14" t="n">
-        <v>208315.0</v>
+        <v>208315</v>
       </c>
       <c r="BL14" t="n">
-        <v>73783.0</v>
+        <v>73783</v>
       </c>
       <c r="BM14" t="n">
-        <v>124351.0</v>
+        <v>124351</v>
       </c>
       <c r="BN14" t="n">
-        <v>147200.0</v>
+        <v>147200</v>
       </c>
       <c r="BO14" t="n">
-        <v>27688.0</v>
+        <v>27688</v>
       </c>
       <c r="BP14" t="n">
-        <v>124299.0</v>
+        <v>124299</v>
       </c>
       <c r="BQ14" t="n">
-        <v>47365.0</v>
+        <v>47365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>6108693.0</v>
+        <v>6108693</v>
       </c>
       <c r="C15" t="n">
-        <v>6386724.0</v>
+        <v>6386724</v>
       </c>
       <c r="D15" t="n">
-        <v>937522.0</v>
+        <v>937522</v>
       </c>
       <c r="E15" t="n">
-        <v>138547.0</v>
+        <v>138547</v>
       </c>
       <c r="F15" t="n">
-        <v>71487.0</v>
+        <v>71487</v>
       </c>
       <c r="G15" t="n">
-        <v>52197.0</v>
+        <v>52197</v>
       </c>
       <c r="H15" t="n">
-        <v>37573.0</v>
+        <v>37573</v>
       </c>
       <c r="I15" t="n">
-        <v>656715.0</v>
+        <v>656715</v>
       </c>
       <c r="J15" t="n">
-        <v>269945.0</v>
+        <v>269945</v>
       </c>
       <c r="K15" t="n">
-        <v>1185517.0</v>
+        <v>1185517</v>
       </c>
       <c r="L15" t="n">
-        <v>170604.0</v>
+        <v>170604</v>
       </c>
       <c r="M15" t="n">
-        <v>20921.0</v>
+        <v>20921</v>
       </c>
       <c r="N15" t="n">
-        <v>607353.0</v>
+        <v>607353</v>
       </c>
       <c r="O15" t="n">
-        <v>1880395.0</v>
+        <v>1880395</v>
       </c>
       <c r="P15" t="n">
-        <v>568947.0</v>
+        <v>568947</v>
       </c>
       <c r="Q15" t="n">
-        <v>423436.0</v>
+        <v>423436</v>
       </c>
       <c r="R15" t="n">
-        <v>208416.0</v>
+        <v>208416</v>
       </c>
       <c r="S15" t="n">
-        <v>207475.0</v>
+        <v>207475</v>
       </c>
       <c r="T15" t="n">
-        <v>26404.0</v>
+        <v>26404</v>
       </c>
       <c r="U15" t="n">
-        <v>72444.0</v>
+        <v>72444</v>
       </c>
       <c r="V15" t="n">
-        <v>94108.0</v>
+        <v>94108</v>
       </c>
       <c r="W15" t="n">
-        <v>96236.0</v>
+        <v>96236</v>
       </c>
       <c r="X15" t="n">
-        <v>148932.0</v>
+        <v>148932</v>
       </c>
       <c r="Y15" t="n">
-        <v>101299.0</v>
+        <v>101299</v>
       </c>
       <c r="Z15" t="n">
-        <v>493202.0</v>
+        <v>493202</v>
       </c>
       <c r="AA15" t="n">
-        <v>681286.0</v>
+        <v>681286</v>
       </c>
       <c r="AB15" t="n">
-        <v>143998.0</v>
+        <v>143998</v>
       </c>
       <c r="AC15" t="n">
-        <v>113125.0</v>
+        <v>113125</v>
       </c>
       <c r="AD15" t="n">
-        <v>793036.0</v>
+        <v>793036</v>
       </c>
       <c r="AE15" t="n">
-        <v>183242.0</v>
+        <v>183242</v>
       </c>
       <c r="AF15" t="n">
-        <v>263416.0</v>
+        <v>263416</v>
       </c>
       <c r="AG15" t="n">
-        <v>475501.0</v>
+        <v>475501</v>
       </c>
       <c r="AH15" t="n">
-        <v>201490.0</v>
+        <v>201490</v>
       </c>
       <c r="AI15" t="n">
-        <v>351885.0</v>
+        <v>351885</v>
       </c>
       <c r="AJ15" t="n">
-        <v>123017.0</v>
+        <v>123017</v>
       </c>
       <c r="AK15" t="n">
-        <v>842409.0</v>
+        <v>842409</v>
       </c>
       <c r="AL15" t="n">
-        <v>541225.0</v>
+        <v>541225</v>
       </c>
       <c r="AM15" t="n">
-        <v>145401.0</v>
+        <v>145401</v>
       </c>
       <c r="AN15" t="n">
-        <v>580655.0</v>
+        <v>580655</v>
       </c>
       <c r="AO15" t="n">
-        <v>8578192.0</v>
+        <v>8578192</v>
       </c>
       <c r="AP15" t="n">
-        <v>2885111.0</v>
+        <v>2885111</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5686739E7</v>
+        <v>15686739</v>
       </c>
       <c r="AR15" t="n">
-        <v>3590564.0</v>
+        <v>3590564</v>
       </c>
       <c r="AS15" t="n">
-        <v>62984.0</v>
+        <v>62984</v>
       </c>
       <c r="AT15" t="n">
-        <v>68023.0</v>
+        <v>68023</v>
       </c>
       <c r="AU15" t="n">
-        <v>846605.0</v>
+        <v>846605</v>
       </c>
       <c r="AV15" t="n">
-        <v>389673.0</v>
+        <v>389673</v>
       </c>
       <c r="AW15" t="n">
-        <v>4711186.0</v>
+        <v>4711186</v>
       </c>
       <c r="AX15" t="n">
-        <v>175232.0</v>
+        <v>175232</v>
       </c>
       <c r="AY15" t="n">
-        <v>183692.0</v>
+        <v>183692</v>
       </c>
       <c r="AZ15" t="n">
-        <v>248280.0</v>
+        <v>248280</v>
       </c>
       <c r="BA15" t="n">
-        <v>683929.0</v>
+        <v>683929</v>
       </c>
       <c r="BB15" t="n">
-        <v>1132240.0</v>
+        <v>1132240</v>
       </c>
       <c r="BC15" t="n">
-        <v>369952.0</v>
+        <v>369952</v>
       </c>
       <c r="BD15" t="n">
-        <v>1558155.0</v>
+        <v>1558155</v>
       </c>
       <c r="BE15" t="n">
-        <v>591296.0</v>
+        <v>591296</v>
       </c>
       <c r="BF15" t="n">
-        <v>502466.0</v>
+        <v>502466</v>
       </c>
       <c r="BG15" t="n">
-        <v>324322.0</v>
+        <v>324322</v>
       </c>
       <c r="BH15" t="n">
-        <v>3888502.0</v>
+        <v>3888502</v>
       </c>
       <c r="BI15" t="n">
-        <v>808584.0</v>
+        <v>808584</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5371853.0</v>
+        <v>5371853</v>
       </c>
       <c r="BK15" t="n">
-        <v>3929287.0</v>
+        <v>3929287</v>
       </c>
       <c r="BL15" t="n">
-        <v>2238428.0</v>
+        <v>2238428</v>
       </c>
       <c r="BM15" t="n">
-        <v>1645234.0</v>
+        <v>1645234</v>
       </c>
       <c r="BN15" t="n">
-        <v>2526037.0</v>
+        <v>2526037</v>
       </c>
       <c r="BO15" t="n">
-        <v>930170.0</v>
+        <v>930170</v>
       </c>
       <c r="BP15" t="n">
-        <v>4025697.0</v>
+        <v>4025697</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6603057.0</v>
+        <v>6603057</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2012.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2012.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2012.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2012.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>129960</v>
+        <v>129960.0</v>
       </c>
       <c r="C2" t="n">
-        <v>50933</v>
+        <v>50933.0</v>
       </c>
       <c r="D2" t="n">
-        <v>19802</v>
+        <v>19802.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8336</v>
+        <v>8336.0</v>
       </c>
       <c r="F2" t="n">
-        <v>124570</v>
+        <v>124570.0</v>
       </c>
       <c r="G2" t="n">
-        <v>49458</v>
+        <v>49458.0</v>
       </c>
       <c r="H2" t="n">
-        <v>3827</v>
+        <v>3827.0</v>
       </c>
       <c r="I2" t="n">
-        <v>27806</v>
+        <v>27806.0</v>
       </c>
       <c r="J2" t="n">
-        <v>14593</v>
+        <v>14593.0</v>
       </c>
       <c r="K2" t="n">
-        <v>36501</v>
+        <v>36501.0</v>
       </c>
       <c r="L2" t="n">
-        <v>20539</v>
+        <v>20539.0</v>
       </c>
       <c r="M2" t="n">
-        <v>4493</v>
+        <v>4493.0</v>
       </c>
       <c r="N2" t="n">
-        <v>13591</v>
+        <v>13591.0</v>
       </c>
       <c r="O2" t="n">
-        <v>24782</v>
+        <v>24782.0</v>
       </c>
       <c r="P2" t="n">
-        <v>12561</v>
+        <v>12561.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9540</v>
+        <v>9540.0</v>
       </c>
       <c r="R2" t="n">
-        <v>15462</v>
+        <v>15462.0</v>
       </c>
       <c r="S2" t="n">
-        <v>8154</v>
+        <v>8154.0</v>
       </c>
       <c r="T2" t="n">
-        <v>-27152</v>
+        <v>-27152.0</v>
       </c>
       <c r="U2" t="n">
-        <v>4035</v>
+        <v>4035.0</v>
       </c>
       <c r="V2" t="n">
-        <v>13075</v>
+        <v>13075.0</v>
       </c>
       <c r="W2" t="n">
-        <v>11134</v>
+        <v>11134.0</v>
       </c>
       <c r="X2" t="n">
-        <v>6143</v>
+        <v>6143.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>21495</v>
+        <v>21495.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>23336</v>
+        <v>23336.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>27353</v>
+        <v>27353.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>23544</v>
+        <v>23544.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>6645</v>
+        <v>6645.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>33208</v>
+        <v>33208.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>15236</v>
+        <v>15236.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>15829</v>
+        <v>15829.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>35123</v>
+        <v>35123.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>33921</v>
+        <v>33921.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>23511</v>
+        <v>23511.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10481</v>
+        <v>10481.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>29355</v>
+        <v>29355.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>19727</v>
+        <v>19727.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>68628</v>
+        <v>68628.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>31605</v>
+        <v>31605.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>265237</v>
+        <v>265237.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>79879</v>
+        <v>79879.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>468460</v>
+        <v>468460.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>118619</v>
+        <v>118619.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>4763</v>
+        <v>4763.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>7034</v>
+        <v>7034.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>52647</v>
+        <v>52647.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>10194</v>
+        <v>10194.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>84038</v>
+        <v>84038.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>10001</v>
+        <v>10001.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>15633</v>
+        <v>15633.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>63566</v>
+        <v>63566.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>59251</v>
+        <v>59251.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>260312</v>
+        <v>260312.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>358947</v>
+        <v>358947.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>96139</v>
+        <v>96139.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>40146</v>
+        <v>40146.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>26397</v>
+        <v>26397.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>24707</v>
+        <v>24707.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>112528</v>
+        <v>112528.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>22000</v>
+        <v>22000.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>405145</v>
+        <v>405145.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>165213</v>
+        <v>165213.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>49520</v>
+        <v>49520.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>81743</v>
+        <v>81743.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>88543</v>
+        <v>88543.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>15504</v>
+        <v>15504.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>59588</v>
+        <v>59588.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>47365</v>
+        <v>47365.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>22525</v>
+        <v>22525.0</v>
       </c>
       <c r="C3" t="n">
-        <v>16726</v>
+        <v>16726.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2265</v>
+        <v>2265.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3593</v>
+        <v>3593.0</v>
       </c>
       <c r="F3" t="n">
-        <v>16279</v>
+        <v>16279.0</v>
       </c>
       <c r="G3" t="n">
-        <v>6083</v>
+        <v>6083.0</v>
       </c>
       <c r="H3" t="n">
-        <v>1966</v>
+        <v>1966.0</v>
       </c>
       <c r="I3" t="n">
-        <v>17392</v>
+        <v>17392.0</v>
       </c>
       <c r="J3" t="n">
-        <v>9752</v>
+        <v>9752.0</v>
       </c>
       <c r="K3" t="n">
-        <v>22823</v>
+        <v>22823.0</v>
       </c>
       <c r="L3" t="n">
-        <v>6734</v>
+        <v>6734.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1308</v>
+        <v>1308.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9064</v>
+        <v>9064.0</v>
       </c>
       <c r="O3" t="n">
-        <v>16093</v>
+        <v>16093.0</v>
       </c>
       <c r="P3" t="n">
-        <v>9322</v>
+        <v>9322.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5606</v>
+        <v>5606.0</v>
       </c>
       <c r="R3" t="n">
-        <v>9556</v>
+        <v>9556.0</v>
       </c>
       <c r="S3" t="n">
-        <v>4882</v>
+        <v>4882.0</v>
       </c>
       <c r="T3" t="n">
-        <v>5346</v>
+        <v>5346.0</v>
       </c>
       <c r="U3" t="n">
-        <v>2555</v>
+        <v>2555.0</v>
       </c>
       <c r="V3" t="n">
-        <v>8381</v>
+        <v>8381.0</v>
       </c>
       <c r="W3" t="n">
-        <v>7144</v>
+        <v>7144.0</v>
       </c>
       <c r="X3" t="n">
-        <v>4136</v>
+        <v>4136.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>7956</v>
+        <v>7956.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>17408</v>
+        <v>17408.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>16016</v>
+        <v>16016.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>10997</v>
+        <v>10997.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>5214</v>
+        <v>5214.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>20514</v>
+        <v>20514.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>9841</v>
+        <v>9841.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>11977</v>
+        <v>11977.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>25511</v>
+        <v>25511.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>18508</v>
+        <v>18508.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>18606</v>
+        <v>18606.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7590</v>
+        <v>7590.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>13048</v>
+        <v>13048.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>10387</v>
+        <v>10387.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>13520</v>
+        <v>13520.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>11923</v>
+        <v>11923.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>114503</v>
+        <v>114503.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>35447</v>
+        <v>35447.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>222593</v>
+        <v>222593.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>57896</v>
+        <v>57896.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3727</v>
+        <v>3727.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>6348</v>
+        <v>6348.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>31988</v>
+        <v>31988.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>6877</v>
+        <v>6877.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>33573</v>
+        <v>33573.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6613</v>
+        <v>6613.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>8849</v>
+        <v>8849.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14588</v>
+        <v>14588.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>31815</v>
+        <v>31815.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>110479</v>
+        <v>110479.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>5319</v>
+        <v>5319.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>39870</v>
+        <v>39870.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>18995</v>
+        <v>18995.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>9668</v>
+        <v>9668.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>7831</v>
+        <v>7831.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>74116</v>
+        <v>74116.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>19497</v>
+        <v>19497.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>353933</v>
+        <v>353933.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>157399</v>
+        <v>157399.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>44169</v>
+        <v>44169.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>77732</v>
+        <v>77732.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>46959</v>
+        <v>46959.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>8014</v>
+        <v>8014.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>34144</v>
+        <v>34144.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>47365</v>
+        <v>47365.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>19142</v>
+        <v>19142.0</v>
       </c>
       <c r="C4" t="n">
-        <v>14482</v>
+        <v>14482.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1882</v>
+        <v>1882.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2825</v>
+        <v>2825.0</v>
       </c>
       <c r="F4" t="n">
-        <v>11863</v>
+        <v>11863.0</v>
       </c>
       <c r="G4" t="n">
-        <v>4453</v>
+        <v>4453.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1533</v>
+        <v>1533.0</v>
       </c>
       <c r="I4" t="n">
-        <v>13304</v>
+        <v>13304.0</v>
       </c>
       <c r="J4" t="n">
-        <v>7186</v>
+        <v>7186.0</v>
       </c>
       <c r="K4" t="n">
-        <v>17803</v>
+        <v>17803.0</v>
       </c>
       <c r="L4" t="n">
-        <v>5045</v>
+        <v>5045.0</v>
       </c>
       <c r="M4" t="n">
-        <v>982</v>
+        <v>982.0</v>
       </c>
       <c r="N4" t="n">
-        <v>7171</v>
+        <v>7171.0</v>
       </c>
       <c r="O4" t="n">
-        <v>12709</v>
+        <v>12709.0</v>
       </c>
       <c r="P4" t="n">
-        <v>7338</v>
+        <v>7338.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4497</v>
+        <v>4497.0</v>
       </c>
       <c r="R4" t="n">
-        <v>7248</v>
+        <v>7248.0</v>
       </c>
       <c r="S4" t="n">
-        <v>3834</v>
+        <v>3834.0</v>
       </c>
       <c r="T4" t="n">
-        <v>3692</v>
+        <v>3692.0</v>
       </c>
       <c r="U4" t="n">
-        <v>1980</v>
+        <v>1980.0</v>
       </c>
       <c r="V4" t="n">
-        <v>6226</v>
+        <v>6226.0</v>
       </c>
       <c r="W4" t="n">
-        <v>5314</v>
+        <v>5314.0</v>
       </c>
       <c r="X4" t="n">
-        <v>3201</v>
+        <v>3201.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6026</v>
+        <v>6026.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>13284</v>
+        <v>13284.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>12552</v>
+        <v>12552.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>8318</v>
+        <v>8318.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4026</v>
+        <v>4026.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>15964</v>
+        <v>15964.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>7542</v>
+        <v>7542.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>9186</v>
+        <v>9186.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>19479</v>
+        <v>19479.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>14032</v>
+        <v>14032.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>14254</v>
+        <v>14254.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5824</v>
+        <v>5824.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>10268</v>
+        <v>10268.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>8386</v>
+        <v>8386.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>10089</v>
+        <v>10089.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>9312</v>
+        <v>9312.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>92011</v>
+        <v>92011.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>28836</v>
+        <v>28836.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>176789</v>
+        <v>176789.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>46093</v>
+        <v>46093.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2874</v>
+        <v>2874.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>4819</v>
+        <v>4819.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>24460</v>
+        <v>24460.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>5431</v>
+        <v>5431.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>28388</v>
+        <v>28388.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5135</v>
+        <v>5135.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>6835</v>
+        <v>6835.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11100</v>
+        <v>11100.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>24581</v>
+        <v>24581.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>84090</v>
+        <v>84090.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>4164</v>
+        <v>4164.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>31625</v>
+        <v>31625.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>15080</v>
+        <v>15080.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>7905</v>
+        <v>7905.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>6408</v>
+        <v>6408.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>58327</v>
+        <v>58327.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>15286</v>
+        <v>15286.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>253024</v>
+        <v>253024.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>137700</v>
+        <v>137700.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>36636</v>
+        <v>36636.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>65248</v>
+        <v>65248.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>40507</v>
+        <v>40507.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>7009</v>
+        <v>7009.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>29364</v>
+        <v>29364.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>45006</v>
+        <v>45006.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>3383</v>
+        <v>3383.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2244</v>
+        <v>2244.0</v>
       </c>
       <c r="D5" t="n">
-        <v>383</v>
+        <v>383.0</v>
       </c>
       <c r="E5" t="n">
-        <v>768</v>
+        <v>768.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4416</v>
+        <v>4416.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1630</v>
+        <v>1630.0</v>
       </c>
       <c r="H5" t="n">
-        <v>433</v>
+        <v>433.0</v>
       </c>
       <c r="I5" t="n">
-        <v>4088</v>
+        <v>4088.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2566</v>
+        <v>2566.0</v>
       </c>
       <c r="K5" t="n">
-        <v>5020</v>
+        <v>5020.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1689</v>
+        <v>1689.0</v>
       </c>
       <c r="M5" t="n">
-        <v>326</v>
+        <v>326.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1893</v>
+        <v>1893.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3384</v>
+        <v>3384.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1984</v>
+        <v>1984.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1109</v>
+        <v>1109.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2308</v>
+        <v>2308.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1048</v>
+        <v>1048.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1654</v>
+        <v>1654.0</v>
       </c>
       <c r="U5" t="n">
-        <v>575</v>
+        <v>575.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2155</v>
+        <v>2155.0</v>
       </c>
       <c r="W5" t="n">
-        <v>1830</v>
+        <v>1830.0</v>
       </c>
       <c r="X5" t="n">
-        <v>935</v>
+        <v>935.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1930</v>
+        <v>1930.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4124</v>
+        <v>4124.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3464</v>
+        <v>3464.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2679</v>
+        <v>2679.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1188</v>
+        <v>1188.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4550</v>
+        <v>4550.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>2299</v>
+        <v>2299.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2791</v>
+        <v>2791.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>6032</v>
+        <v>6032.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4476</v>
+        <v>4476.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>4352</v>
+        <v>4352.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1766</v>
+        <v>1766.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2780</v>
+        <v>2780.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2001</v>
+        <v>2001.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>3431</v>
+        <v>3431.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>2611</v>
+        <v>2611.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>22492</v>
+        <v>22492.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>6611</v>
+        <v>6611.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>45804</v>
+        <v>45804.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>11803</v>
+        <v>11803.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>853</v>
+        <v>853.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1529</v>
+        <v>1529.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>7528</v>
+        <v>7528.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1446</v>
+        <v>1446.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>5185</v>
+        <v>5185.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1478</v>
+        <v>1478.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>2014</v>
+        <v>2014.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3488</v>
+        <v>3488.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>7234</v>
+        <v>7234.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>26389</v>
+        <v>26389.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1155</v>
+        <v>1155.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>8245</v>
+        <v>8245.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>3915</v>
+        <v>3915.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>1763</v>
+        <v>1763.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>1423</v>
+        <v>1423.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>15789</v>
+        <v>15789.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>4211</v>
+        <v>4211.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>50992</v>
+        <v>50992.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>16991</v>
+        <v>16991.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>7533</v>
+        <v>7533.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>7885</v>
+        <v>7885.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>6452</v>
+        <v>6452.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>4780</v>
+        <v>4780.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2359</v>
+        <v>2359.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>3382</v>
+        <v>3382.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2244</v>
+        <v>2244.0</v>
       </c>
       <c r="D6" t="n">
-        <v>381</v>
+        <v>381.0</v>
       </c>
       <c r="E6" t="n">
-        <v>726</v>
+        <v>726.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3759</v>
+        <v>3759.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1376</v>
+        <v>1376.0</v>
       </c>
       <c r="H6" t="n">
-        <v>384</v>
+        <v>384.0</v>
       </c>
       <c r="I6" t="n">
-        <v>3959</v>
+        <v>3959.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2527</v>
+        <v>2527.0</v>
       </c>
       <c r="K6" t="n">
-        <v>4833</v>
+        <v>4833.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1566</v>
+        <v>1566.0</v>
       </c>
       <c r="M6" t="n">
-        <v>308</v>
+        <v>308.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1881</v>
+        <v>1881.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3368</v>
+        <v>3368.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1967</v>
+        <v>1967.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1081</v>
+        <v>1081.0</v>
       </c>
       <c r="R6" t="n">
-        <v>2167</v>
+        <v>2167.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1080</v>
+        <v>1080.0</v>
       </c>
       <c r="U6" t="n">
-        <v>550</v>
+        <v>550.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1850</v>
+        <v>1850.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1579</v>
+        <v>1579.0</v>
       </c>
       <c r="X6" t="n">
-        <v>885</v>
+        <v>885.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1785</v>
+        <v>1785.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>3938</v>
+        <v>3938.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3359</v>
+        <v>3359.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2489</v>
+        <v>2489.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1140</v>
+        <v>1140.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4369</v>
+        <v>4369.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>2173</v>
+        <v>2173.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2630</v>
+        <v>2630.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5756</v>
+        <v>5756.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4121</v>
+        <v>4121.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>4202</v>
+        <v>4202.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1678</v>
+        <v>1678.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2698</v>
+        <v>2698.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1915</v>
+        <v>1915.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>2845</v>
+        <v>2845.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>2532</v>
+        <v>2532.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>21816</v>
+        <v>21816.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>6537</v>
+        <v>6537.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>44957</v>
+        <v>44957.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>11540</v>
+        <v>11540.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>834</v>
+        <v>834.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1436</v>
+        <v>1436.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>7006</v>
+        <v>7006.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1418</v>
+        <v>1418.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>5132</v>
+        <v>5132.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1374</v>
+        <v>1374.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1835</v>
+        <v>1835.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3086</v>
+        <v>3086.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>6852</v>
+        <v>6852.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>19640</v>
+        <v>19640.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1092</v>
+        <v>1092.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>7672</v>
+        <v>7672.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>3823</v>
+        <v>3823.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>1737</v>
+        <v>1737.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>1389</v>
+        <v>1389.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>15474</v>
+        <v>15474.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>4135</v>
+        <v>4135.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>50689</v>
+        <v>50689.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>16962</v>
+        <v>16962.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>7264</v>
+        <v>7264.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>7883</v>
+        <v>7883.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>6210</v>
+        <v>6210.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>988</v>
+        <v>988.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>4657</v>
+        <v>4657.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2359</v>
+        <v>2359.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="F7" t="n">
-        <v>657</v>
+        <v>657.0</v>
       </c>
       <c r="G7" t="n">
-        <v>254</v>
+        <v>254.0</v>
       </c>
       <c r="H7" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="I7" t="n">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="J7" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="K7" t="n">
-        <v>187</v>
+        <v>187.0</v>
       </c>
       <c r="L7" t="n">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="M7" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="P7" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="R7" t="n">
-        <v>141</v>
+        <v>141.0</v>
       </c>
       <c r="S7" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="T7" t="n">
-        <v>574</v>
+        <v>574.0</v>
       </c>
       <c r="U7" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="V7" t="n">
-        <v>305</v>
+        <v>305.0</v>
       </c>
       <c r="W7" t="n">
-        <v>251</v>
+        <v>251.0</v>
       </c>
       <c r="X7" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>186</v>
+        <v>186.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>161</v>
+        <v>161.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>276</v>
+        <v>276.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>355</v>
+        <v>355.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>586</v>
+        <v>586.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>676</v>
+        <v>676.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>847</v>
+        <v>847.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>263</v>
+        <v>263.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>522</v>
+        <v>522.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>402</v>
+        <v>402.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>382</v>
+        <v>382.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>6749</v>
+        <v>6749.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>573</v>
+        <v>573.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>315</v>
+        <v>315.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>303</v>
+        <v>303.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>242</v>
+        <v>242.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>49917</v>
+        <v>49917.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>2708</v>
+        <v>2708.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>4599</v>
+        <v>4599.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>113677</v>
+        <v>113677.0</v>
       </c>
       <c r="C9" t="n">
-        <v>33935</v>
+        <v>33935.0</v>
       </c>
       <c r="D9" t="n">
-        <v>17473</v>
+        <v>17473.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4671</v>
+        <v>4671.0</v>
       </c>
       <c r="F9" t="n">
-        <v>107274</v>
+        <v>107274.0</v>
       </c>
       <c r="G9" t="n">
-        <v>42957</v>
+        <v>42957.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1767</v>
+        <v>1767.0</v>
       </c>
       <c r="I9" t="n">
-        <v>9359</v>
+        <v>9359.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4286</v>
+        <v>4286.0</v>
       </c>
       <c r="K9" t="n">
-        <v>12258</v>
+        <v>12258.0</v>
       </c>
       <c r="L9" t="n">
-        <v>13250</v>
+        <v>13250.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3102</v>
+        <v>3102.0</v>
       </c>
       <c r="N9" t="n">
-        <v>4194</v>
+        <v>4194.0</v>
       </c>
       <c r="O9" t="n">
-        <v>8182</v>
+        <v>8182.0</v>
       </c>
       <c r="P9" t="n">
-        <v>2907</v>
+        <v>2907.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3716</v>
+        <v>3716.0</v>
       </c>
       <c r="R9" t="n">
-        <v>5522</v>
+        <v>5522.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3048</v>
+        <v>3048.0</v>
       </c>
       <c r="T9" t="n">
-        <v>-33084</v>
+        <v>-33084.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1398</v>
+        <v>1398.0</v>
       </c>
       <c r="V9" t="n">
-        <v>4066</v>
+        <v>4066.0</v>
       </c>
       <c r="W9" t="n">
-        <v>3614</v>
+        <v>3614.0</v>
       </c>
       <c r="X9" t="n">
-        <v>1823</v>
+        <v>1823.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>13187</v>
+        <v>13187.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>5288</v>
+        <v>5288.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>10792</v>
+        <v>10792.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>11939</v>
+        <v>11939.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11993</v>
+        <v>11993.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>4719</v>
+        <v>4719.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3390</v>
+        <v>3390.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>8799</v>
+        <v>8799.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>14547</v>
+        <v>14547.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>4257</v>
+        <v>4257.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2654</v>
+        <v>2654.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>15851</v>
+        <v>15851.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>9055</v>
+        <v>9055.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>54259</v>
+        <v>54259.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>19257</v>
+        <v>19257.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>147751</v>
+        <v>147751.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>43494</v>
+        <v>43494.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>239850</v>
+        <v>239850.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>60077</v>
+        <v>60077.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>779</v>
+        <v>779.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>309</v>
+        <v>309.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>19502</v>
+        <v>19502.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>3102</v>
+        <v>3102.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>49569</v>
+        <v>49569.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>3169</v>
+        <v>3169.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>5938</v>
+        <v>5938.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>44737</v>
+        <v>44737.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>26468</v>
+        <v>26468.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>145140</v>
+        <v>145140.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>353400</v>
+        <v>353400.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>54947</v>
+        <v>54947.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>20431</v>
+        <v>20431.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>16442</v>
+        <v>16442.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>16695</v>
+        <v>16695.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>36445</v>
+        <v>36445.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>1926</v>
+        <v>1926.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>51115</v>
+        <v>51115.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>7811</v>
+        <v>7811.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>4411</v>
+        <v>4411.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>4011</v>
+        <v>4011.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>40227</v>
+        <v>40227.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>7331</v>
+        <v>7331.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>24711</v>
+        <v>24711.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>58683</v>
+        <v>58683.0</v>
       </c>
       <c r="C10" t="n">
-        <v>25886</v>
+        <v>25886.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8450</v>
+        <v>8450.0</v>
       </c>
       <c r="E10" t="n">
-        <v>351</v>
+        <v>351.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>286</v>
+        <v>286.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3029</v>
+        <v>3029.0</v>
       </c>
       <c r="L10" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1515</v>
+        <v>1515.0</v>
       </c>
       <c r="O10" t="n">
-        <v>6771</v>
+        <v>6771.0</v>
       </c>
       <c r="P10" t="n">
-        <v>525</v>
+        <v>525.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1230</v>
+        <v>1230.0</v>
       </c>
       <c r="R10" t="n">
-        <v>214</v>
+        <v>214.0</v>
       </c>
       <c r="S10" t="n">
-        <v>511</v>
+        <v>511.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>208</v>
+        <v>208.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>794</v>
+        <v>794.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2065</v>
+        <v>2065.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1516</v>
+        <v>1516.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>3999</v>
+        <v>3999.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1387</v>
+        <v>1387.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>62929</v>
+        <v>62929.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>18179</v>
+        <v>18179.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>50262</v>
+        <v>50262.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>22263</v>
+        <v>22263.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>212</v>
+        <v>212.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>925</v>
+        <v>925.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>470</v>
+        <v>470.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>30464</v>
+        <v>30464.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>711</v>
+        <v>711.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>529</v>
+        <v>529.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>391</v>
+        <v>391.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>5272</v>
+        <v>5272.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1773</v>
+        <v>1773.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>4064</v>
+        <v>4064.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>24091</v>
+        <v>24091.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>9160</v>
+        <v>9160.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>5208</v>
+        <v>5208.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>673</v>
+        <v>673.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>4329</v>
+        <v>4329.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>718</v>
+        <v>718.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>4189</v>
+        <v>4189.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>21445</v>
+        <v>21445.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>5283</v>
+        <v>5283.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>19365</v>
+        <v>19365.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>54994</v>
+        <v>54994.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8049</v>
+        <v>8049.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9023</v>
+        <v>9023.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4320</v>
+        <v>4320.0</v>
       </c>
       <c r="F11" t="n">
-        <v>107274</v>
+        <v>107274.0</v>
       </c>
       <c r="G11" t="n">
-        <v>42957</v>
+        <v>42957.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1767</v>
+        <v>1767.0</v>
       </c>
       <c r="I11" t="n">
-        <v>9073</v>
+        <v>9073.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4286</v>
+        <v>4286.0</v>
       </c>
       <c r="K11" t="n">
-        <v>9229</v>
+        <v>9229.0</v>
       </c>
       <c r="L11" t="n">
-        <v>13228</v>
+        <v>13228.0</v>
       </c>
       <c r="M11" t="n">
-        <v>3102</v>
+        <v>3102.0</v>
       </c>
       <c r="N11" t="n">
-        <v>2679</v>
+        <v>2679.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1411</v>
+        <v>1411.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2382</v>
+        <v>2382.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2486</v>
+        <v>2486.0</v>
       </c>
       <c r="R11" t="n">
-        <v>5308</v>
+        <v>5308.0</v>
       </c>
       <c r="S11" t="n">
-        <v>2537</v>
+        <v>2537.0</v>
       </c>
       <c r="T11" t="n">
-        <v>-33084</v>
+        <v>-33084.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1398</v>
+        <v>1398.0</v>
       </c>
       <c r="V11" t="n">
-        <v>4066</v>
+        <v>4066.0</v>
       </c>
       <c r="W11" t="n">
-        <v>3614</v>
+        <v>3614.0</v>
       </c>
       <c r="X11" t="n">
-        <v>1717</v>
+        <v>1717.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>13187</v>
+        <v>13187.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>5080</v>
+        <v>5080.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>9998</v>
+        <v>9998.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>11939</v>
+        <v>11939.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>9928</v>
+        <v>9928.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>4719</v>
+        <v>4719.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>3390</v>
+        <v>3390.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>8799</v>
+        <v>8799.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>14547</v>
+        <v>14547.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>4210</v>
+        <v>4210.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2603</v>
+        <v>2603.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>14335</v>
+        <v>14335.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>5056</v>
+        <v>5056.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>54259</v>
+        <v>54259.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>17870</v>
+        <v>17870.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>84822</v>
+        <v>84822.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>25315</v>
+        <v>25315.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>189588</v>
+        <v>189588.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>37814</v>
+        <v>37814.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>567</v>
+        <v>567.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>309</v>
+        <v>309.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>18577</v>
+        <v>18577.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>2632</v>
+        <v>2632.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>19105</v>
+        <v>19105.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>2458</v>
+        <v>2458.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>5409</v>
+        <v>5409.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>44346</v>
+        <v>44346.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>21196</v>
+        <v>21196.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>143367</v>
+        <v>143367.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>349336</v>
+        <v>349336.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>30856</v>
+        <v>30856.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>11271</v>
+        <v>11271.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>11234</v>
+        <v>11234.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>16022</v>
+        <v>16022.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>32116</v>
+        <v>32116.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1208</v>
+        <v>1208.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>51115</v>
+        <v>51115.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>7811</v>
+        <v>7811.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>4011</v>
+        <v>4011.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>18782</v>
+        <v>18782.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>2048</v>
+        <v>2048.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>5346</v>
+        <v>5346.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>878</v>
+        <v>878.0</v>
       </c>
       <c r="C12" t="n">
-        <v>376</v>
+        <v>376.0</v>
       </c>
       <c r="D12" t="n">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="E12" t="n">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1017</v>
+        <v>1017.0</v>
       </c>
       <c r="G12" t="n">
-        <v>418</v>
+        <v>418.0</v>
       </c>
       <c r="H12" t="n">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1136</v>
+        <v>1136.0</v>
       </c>
       <c r="J12" t="n">
-        <v>646</v>
+        <v>646.0</v>
       </c>
       <c r="K12" t="n">
-        <v>1498</v>
+        <v>1498.0</v>
       </c>
       <c r="L12" t="n">
-        <v>587</v>
+        <v>587.0</v>
       </c>
       <c r="M12" t="n">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="N12" t="n">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="O12" t="n">
-        <v>507</v>
+        <v>507.0</v>
       </c>
       <c r="P12" t="n">
-        <v>332</v>
+        <v>332.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>251</v>
+        <v>251.0</v>
       </c>
       <c r="R12" t="n">
-        <v>451</v>
+        <v>451.0</v>
       </c>
       <c r="S12" t="n">
-        <v>224</v>
+        <v>224.0</v>
       </c>
       <c r="T12" t="n">
-        <v>640</v>
+        <v>640.0</v>
       </c>
       <c r="U12" t="n">
-        <v>159</v>
+        <v>159.0</v>
       </c>
       <c r="V12" t="n">
-        <v>647</v>
+        <v>647.0</v>
       </c>
       <c r="W12" t="n">
-        <v>376</v>
+        <v>376.0</v>
       </c>
       <c r="X12" t="n">
-        <v>209</v>
+        <v>209.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>352</v>
+        <v>352.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>719</v>
+        <v>719.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>647</v>
+        <v>647.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>624</v>
+        <v>624.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>776</v>
+        <v>776.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>719</v>
+        <v>719.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>519</v>
+        <v>519.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1008</v>
+        <v>1008.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1068</v>
+        <v>1068.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>733</v>
+        <v>733.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>313</v>
+        <v>313.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>480</v>
+        <v>480.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>285</v>
+        <v>285.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1483</v>
+        <v>1483.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>454</v>
+        <v>454.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>3400</v>
+        <v>3400.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>965</v>
+        <v>965.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6802</v>
+        <v>6802.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>1944</v>
+        <v>1944.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>257</v>
+        <v>257.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>377</v>
+        <v>377.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1224</v>
+        <v>1224.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>215</v>
+        <v>215.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>896</v>
+        <v>896.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>219</v>
+        <v>219.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>846</v>
+        <v>846.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4347</v>
+        <v>4347.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>968</v>
+        <v>968.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>4693</v>
+        <v>4693.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>228</v>
+        <v>228.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1322</v>
+        <v>1322.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>866</v>
+        <v>866.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>287</v>
+        <v>287.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>334</v>
+        <v>334.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>1998</v>
+        <v>1998.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>577</v>
+        <v>577.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>940</v>
+        <v>940.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>1372</v>
+        <v>1372.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>159</v>
+        <v>159.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>733</v>
+        <v>733.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-7120</v>
+        <v>-7120.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-104</v>
+        <v>-104.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-44</v>
+        <v>-44.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-64</v>
+        <v>-64.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-81</v>
+        <v>-81.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-91</v>
+        <v>-91.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-78</v>
+        <v>-78.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-32</v>
+        <v>-32.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-17</v>
+        <v>-17.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-33</v>
+        <v>-33.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-67</v>
+        <v>-67.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-54</v>
+        <v>-54.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-77</v>
+        <v>-77.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-19</v>
+        <v>-19.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-79</v>
+        <v>-79.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-102</v>
+        <v>-102.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-16</v>
+        <v>-16.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-80</v>
+        <v>-80.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-75</v>
+        <v>-75.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-43</v>
+        <v>-43.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-57</v>
+        <v>-57.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-195</v>
+        <v>-195.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-202</v>
+        <v>-202.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-85</v>
+        <v>-85.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-76</v>
+        <v>-76.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-24</v>
+        <v>-24.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-634</v>
+        <v>-634.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-29</v>
+        <v>-29.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-417</v>
+        <v>-417.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-27</v>
+        <v>-27.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-785</v>
+        <v>-785.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1298</v>
+        <v>-1298.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-67</v>
+        <v>-67.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-106</v>
+        <v>-106.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-146</v>
+        <v>-146.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-153</v>
+        <v>-153.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-31</v>
+        <v>-31.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>227727</v>
+        <v>227727.0</v>
       </c>
       <c r="C14" t="n">
-        <v>101333</v>
+        <v>101333.0</v>
       </c>
       <c r="D14" t="n">
-        <v>27075</v>
+        <v>27075.0</v>
       </c>
       <c r="E14" t="n">
-        <v>18120</v>
+        <v>18120.0</v>
       </c>
       <c r="F14" t="n">
-        <v>189352</v>
+        <v>189352.0</v>
       </c>
       <c r="G14" t="n">
-        <v>71577</v>
+        <v>71577.0</v>
       </c>
       <c r="H14" t="n">
-        <v>11594</v>
+        <v>11594.0</v>
       </c>
       <c r="I14" t="n">
-        <v>180797</v>
+        <v>180797.0</v>
       </c>
       <c r="J14" t="n">
-        <v>60321</v>
+        <v>60321.0</v>
       </c>
       <c r="K14" t="n">
-        <v>206681</v>
+        <v>206681.0</v>
       </c>
       <c r="L14" t="n">
-        <v>61017</v>
+        <v>61017.0</v>
       </c>
       <c r="M14" t="n">
-        <v>14393</v>
+        <v>14393.0</v>
       </c>
       <c r="N14" t="n">
-        <v>44843</v>
+        <v>44843.0</v>
       </c>
       <c r="O14" t="n">
-        <v>59280</v>
+        <v>59280.0</v>
       </c>
       <c r="P14" t="n">
-        <v>35500</v>
+        <v>35500.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>24419</v>
+        <v>24419.0</v>
       </c>
       <c r="R14" t="n">
-        <v>61856</v>
+        <v>61856.0</v>
       </c>
       <c r="S14" t="n">
-        <v>19048</v>
+        <v>19048.0</v>
       </c>
       <c r="T14" t="n">
-        <v>278316</v>
+        <v>278316.0</v>
       </c>
       <c r="U14" t="n">
-        <v>22280</v>
+        <v>22280.0</v>
       </c>
       <c r="V14" t="n">
-        <v>114237</v>
+        <v>114237.0</v>
       </c>
       <c r="W14" t="n">
-        <v>54929</v>
+        <v>54929.0</v>
       </c>
       <c r="X14" t="n">
-        <v>29424</v>
+        <v>29424.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>47025</v>
+        <v>47025.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>86683</v>
+        <v>86683.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>79375</v>
+        <v>79375.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>96084</v>
+        <v>96084.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>42116</v>
+        <v>42116.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>86563</v>
+        <v>86563.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>75942</v>
+        <v>75942.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>64375</v>
+        <v>64375.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>113857</v>
+        <v>113857.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>166703</v>
+        <v>166703.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>81034</v>
+        <v>81034.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38542</v>
+        <v>38542.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>63871</v>
+        <v>63871.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>49956</v>
+        <v>49956.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>183689</v>
+        <v>183689.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>50762</v>
+        <v>50762.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>575780</v>
+        <v>575780.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>133105</v>
+        <v>133105.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>723894</v>
+        <v>723894.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>259972</v>
+        <v>259972.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>14082</v>
+        <v>14082.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>31066</v>
+        <v>31066.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>88526</v>
+        <v>88526.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>18254</v>
+        <v>18254.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>174921</v>
+        <v>174921.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>22192</v>
+        <v>22192.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>34934</v>
+        <v>34934.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>155631</v>
+        <v>155631.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>88794</v>
+        <v>88794.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>426909</v>
+        <v>426909.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>392836</v>
+        <v>392836.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>140913</v>
+        <v>140913.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>64350</v>
+        <v>64350.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>76738</v>
+        <v>76738.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>37069</v>
+        <v>37069.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>164913</v>
+        <v>164913.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>26984</v>
+        <v>26984.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>577618</v>
+        <v>577618.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>208315</v>
+        <v>208315.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>73783</v>
+        <v>73783.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>124351</v>
+        <v>124351.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>147200</v>
+        <v>147200.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>27688</v>
+        <v>27688.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>124299</v>
+        <v>124299.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>47365</v>
+        <v>47365.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6108693</v>
+        <v>6108693.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6386724</v>
+        <v>6386724.0</v>
       </c>
       <c r="D15" t="n">
-        <v>937522</v>
+        <v>937522.0</v>
       </c>
       <c r="E15" t="n">
-        <v>138547</v>
+        <v>138547.0</v>
       </c>
       <c r="F15" t="n">
-        <v>71487</v>
+        <v>71487.0</v>
       </c>
       <c r="G15" t="n">
-        <v>52197</v>
+        <v>52197.0</v>
       </c>
       <c r="H15" t="n">
-        <v>37573</v>
+        <v>37573.0</v>
       </c>
       <c r="I15" t="n">
-        <v>656715</v>
+        <v>656715.0</v>
       </c>
       <c r="J15" t="n">
-        <v>269945</v>
+        <v>269945.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1185517</v>
+        <v>1185517.0</v>
       </c>
       <c r="L15" t="n">
-        <v>170604</v>
+        <v>170604.0</v>
       </c>
       <c r="M15" t="n">
-        <v>20921</v>
+        <v>20921.0</v>
       </c>
       <c r="N15" t="n">
-        <v>607353</v>
+        <v>607353.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1880395</v>
+        <v>1880395.0</v>
       </c>
       <c r="P15" t="n">
-        <v>568947</v>
+        <v>568947.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>423436</v>
+        <v>423436.0</v>
       </c>
       <c r="R15" t="n">
-        <v>208416</v>
+        <v>208416.0</v>
       </c>
       <c r="S15" t="n">
-        <v>207475</v>
+        <v>207475.0</v>
       </c>
       <c r="T15" t="n">
-        <v>26404</v>
+        <v>26404.0</v>
       </c>
       <c r="U15" t="n">
-        <v>72444</v>
+        <v>72444.0</v>
       </c>
       <c r="V15" t="n">
-        <v>94108</v>
+        <v>94108.0</v>
       </c>
       <c r="W15" t="n">
-        <v>96236</v>
+        <v>96236.0</v>
       </c>
       <c r="X15" t="n">
-        <v>148932</v>
+        <v>148932.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>101299</v>
+        <v>101299.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>493202</v>
+        <v>493202.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>681286</v>
+        <v>681286.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>143998</v>
+        <v>143998.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>113125</v>
+        <v>113125.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>793036</v>
+        <v>793036.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>183242</v>
+        <v>183242.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>263416</v>
+        <v>263416.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>475501</v>
+        <v>475501.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>201490</v>
+        <v>201490.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>351885</v>
+        <v>351885.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>123017</v>
+        <v>123017.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>842409</v>
+        <v>842409.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>541225</v>
+        <v>541225.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>145401</v>
+        <v>145401.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>580655</v>
+        <v>580655.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8578192</v>
+        <v>8578192.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2885111</v>
+        <v>2885111.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15686739</v>
+        <v>1.5686739E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3590564</v>
+        <v>3590564.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>62984</v>
+        <v>62984.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>68023</v>
+        <v>68023.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>846605</v>
+        <v>846605.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>389673</v>
+        <v>389673.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4711186</v>
+        <v>4711186.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>175232</v>
+        <v>175232.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>183692</v>
+        <v>183692.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>248280</v>
+        <v>248280.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>683929</v>
+        <v>683929.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1132240</v>
+        <v>1132240.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>369952</v>
+        <v>369952.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1558155</v>
+        <v>1558155.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>591296</v>
+        <v>591296.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>502466</v>
+        <v>502466.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>324322</v>
+        <v>324322.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>3888502</v>
+        <v>3888502.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>808584</v>
+        <v>808584.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>5371853</v>
+        <v>5371853.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>3929287</v>
+        <v>3929287.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2238428</v>
+        <v>2238428.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>1645234</v>
+        <v>1645234.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>2526037</v>
+        <v>2526037.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>930170</v>
+        <v>930170.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>4025697</v>
+        <v>4025697.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6603057</v>
+        <v>6603057.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>